--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96280AF-BA41-4F7D-A6D8-1D69D96F073E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D2F43B-BD3D-42B7-9D02-57938231155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="289">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1270,6 +1270,10 @@
   </si>
   <si>
     <t>생물오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2310,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2351,86 +2355,97 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="58">
+        <v>2</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="58">
         <v>999</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B11" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C11" s="58" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2444,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3127,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DE479-D69F-48E8-BF90-B067D08C8E1C}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3137,7 +3152,7 @@
     <col min="2" max="2" width="40.85546875" style="30" customWidth="1"/>
     <col min="3" max="3" width="2.78515625" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.0703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.78515625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="30"/>
   </cols>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D2F43B-BD3D-42B7-9D02-57938231155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED475D36-E523-4F97-B8AB-5E26199C5903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="289">
   <si>
     <t>보내는사람</t>
   </si>
@@ -2316,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2457,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2702,16 +2702,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2728,10 +2728,10 @@
         <v>176</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2748,10 +2748,10 @@
         <v>176</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2768,10 +2768,10 @@
         <v>176</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2788,10 +2788,10 @@
         <v>176</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2805,13 +2805,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2828,10 +2828,10 @@
         <v>177</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2848,10 +2848,10 @@
         <v>177</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2868,30 +2868,30 @@
         <v>177</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="42">
         <v>21</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>126</v>
+      <c r="B21" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.45">
@@ -2899,19 +2899,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.45">
@@ -2919,19 +2919,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.45">
@@ -2945,32 +2945,32 @@
         <v>230</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>241</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.45">
       <c r="A25" s="42">
         <v>25</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>7</v>
+      <c r="B25" s="58" t="s">
+        <v>126</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>250</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
@@ -2980,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>243</v>
@@ -2989,7 +2989,7 @@
         <v>248</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3000,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>243</v>
@@ -3009,7 +3009,7 @@
         <v>248</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3020,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>243</v>
@@ -3029,7 +3029,7 @@
         <v>248</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3040,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>243</v>
@@ -3060,13 +3060,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>243</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>245</v>
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>243</v>
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>243</v>
@@ -3120,15 +3120,35 @@
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="42">
+        <v>34</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="C34" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E34" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>256</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED475D36-E523-4F97-B8AB-5E26199C5903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35DD6A5-7CD7-4E54-9415-884CBA5991E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -996,6 +996,58 @@
   </si>
   <si>
     <t>\s*x1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLACE_REGEX_SUB</t>
+  </si>
+  <si>
+    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
+  </si>
+  <si>
+    <t>해당 문구가 있으면 전체를 (자숙)으로 변경</t>
+  </si>
+  <si>
+    <t>소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"소스" 글자가 보이면 뒤에 " 소스 x{qty}" 붙임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g을 kg로 변환하고 수량 곱함 (일반규칙)</t>
+  </si>
+  <si>
+    <t>가리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백골뱅이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2미"이 있으면 수량 곱해서 "4미"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPEND_QTY_UNIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1140,7 +1192,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">함께 즐기는 동해안 골뱅이: , 초코오징어 선택: , 한정수량 생물 오징어 /, 마릿수 선택: , 제철 생물 호래기 / , A급 온다리, (생물), 추가, (손질후 600g내외), (초벌후 480g내외), 소스 추가: , 초생강 추가: , 장어 선택: , </t>
+      <t xml:space="preserve">함께 즐기는 동해안 골뱅이: , 초코오징어 선택: , 한정수량 생물오징어 /, 마릿수 선택: , 제철 생물 호래기 / , A급 온다리, (생물), 추가, (손질후 600g내외), (초벌후 480g내외), 소스 추가: , 초생강 추가: , 장어 선택: , </t>
     </r>
     <r>
       <rPr>
@@ -1222,58 +1274,6 @@
       </rPr>
       <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPLACE_REGEX_SUB</t>
-  </si>
-  <si>
-    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
-  </si>
-  <si>
-    <t>해당 문구가 있으면 전체를 (자숙)으로 변경</t>
-  </si>
-  <si>
-    <t>소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"소스" 글자가 보이면 뒤에 " 소스 x{qty}" 붙임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고등어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g을 kg로 변환하고 수량 곱함 (일반규칙)</t>
-  </si>
-  <si>
-    <t>가리비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백골뱅이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2미"이 있으면 수량 곱해서 "4미"으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPEND_QTY_UNIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2316,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>131</v>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2528,7 +2528,7 @@
         <v>171</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>172</v>
@@ -2542,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>168</v>
@@ -2585,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>276</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2605,7 +2605,7 @@
         <v>228</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>257</v>
@@ -2622,10 +2622,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>257</v>
@@ -2662,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>174</v>
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2702,7 +2702,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>174</v>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2788,10 +2788,10 @@
         <v>176</v>
       </c>
       <c r="E16" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>284</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2888,10 +2888,10 @@
         <v>177</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>278</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.45">
@@ -3040,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>243</v>
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>243</v>
@@ -3120,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>243</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35DD6A5-7CD7-4E54-9415-884CBA5991E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865138DB-4FCE-4CFF-94A0-34B5047F40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,10 +802,6 @@
   </si>
   <si>
     <t>홍어, 참홍어, 흑산도 홍어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑오징어, 생물 오징어, 생물 호래기, 급냉 호래기, 생물 한치, 실속형 5미, 실속형 10미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1274,6 +1270,10 @@
       </rPr>
       <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑오징어, 생물오징어, 생물 호래기, 급냉 호래기, 생물 한치, 실속형 5미, 실속형 10미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>131</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>131</v>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>116</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>118</v>
@@ -2432,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="58" t="s">
         <v>126</v>
@@ -2528,7 +2528,7 @@
         <v>171</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>172</v>
@@ -2542,16 +2542,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2559,19 +2559,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>168</v>
       </c>
       <c r="E5" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2585,13 +2585,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>275</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2602,16 +2602,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2622,16 +2622,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2639,10 +2639,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>174</v>
@@ -2651,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2662,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>174</v>
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2682,7 +2682,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>174</v>
@@ -2691,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2702,7 +2702,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>174</v>
@@ -2711,7 +2711,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2731,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2748,10 +2748,10 @@
         <v>176</v>
       </c>
       <c r="E14" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="42" t="s">
         <v>260</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2768,10 +2768,10 @@
         <v>176</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>262</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2788,10 +2788,10 @@
         <v>176</v>
       </c>
       <c r="E16" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>283</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2808,10 +2808,10 @@
         <v>176</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2828,10 +2828,10 @@
         <v>177</v>
       </c>
       <c r="E18" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>265</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2848,10 +2848,10 @@
         <v>177</v>
       </c>
       <c r="E19" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>267</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2868,10 +2868,10 @@
         <v>177</v>
       </c>
       <c r="E20" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>269</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2888,10 +2888,10 @@
         <v>177</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>277</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.45">
@@ -2902,16 +2902,16 @@
         <v>126</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.45">
@@ -2922,16 +2922,16 @@
         <v>95</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>237</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>238</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.45">
@@ -2942,16 +2942,16 @@
         <v>126</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="F24" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
@@ -2962,13 +2962,13 @@
         <v>126</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>272</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>273</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -2980,16 +2980,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="42" t="s">
         <v>249</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3000,16 +3000,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3020,16 +3020,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="42" t="s">
         <v>253</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3040,16 +3040,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3060,16 +3060,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3080,16 +3080,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3100,16 +3100,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3120,16 +3120,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D33" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="F33" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3146,10 +3146,10 @@
         <v>168</v>
       </c>
       <c r="E34" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="42" t="s">
         <v>255</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3202,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>144</v>
@@ -3218,7 +3218,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>145</v>
@@ -3234,7 +3234,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>146</v>
@@ -3252,7 +3252,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>147</v>
@@ -3270,7 +3270,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>148</v>
@@ -3286,7 +3286,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>149</v>
@@ -3302,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>150</v>
@@ -3320,7 +3320,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>151</v>
@@ -3338,7 +3338,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>152</v>
@@ -3356,7 +3356,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>153</v>
@@ -3372,7 +3372,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>154</v>
@@ -3388,7 +3388,7 @@
         <v>89</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>155</v>
@@ -3406,7 +3406,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>156</v>
@@ -3422,7 +3422,7 @@
         <v>89</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>157</v>
@@ -3438,7 +3438,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>158</v>
@@ -3447,7 +3447,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="50"/>
     </row>
@@ -3456,7 +3456,7 @@
         <v>89</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>159</v>
@@ -3474,7 +3474,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>160</v>
@@ -3490,7 +3490,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>161</v>
@@ -3506,7 +3506,7 @@
         <v>89</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>162</v>
@@ -3524,7 +3524,7 @@
         <v>89</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>163</v>
@@ -3540,7 +3540,7 @@
         <v>89</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>164</v>
@@ -3556,7 +3556,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>144</v>
@@ -3574,7 +3574,7 @@
         <v>95</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>145</v>
@@ -3592,7 +3592,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>146</v>
@@ -3610,7 +3610,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>147</v>
@@ -3619,7 +3619,7 @@
         <v>90</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="50"/>
     </row>
@@ -3628,7 +3628,7 @@
         <v>95</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>148</v>
@@ -3646,7 +3646,7 @@
         <v>95</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>149</v>
@@ -3664,7 +3664,7 @@
         <v>95</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>150</v>
@@ -3682,7 +3682,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>151</v>
@@ -3698,7 +3698,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>152</v>
@@ -3716,7 +3716,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>144</v>
@@ -3734,7 +3734,7 @@
         <v>105</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>145</v>
@@ -3752,7 +3752,7 @@
         <v>105</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>146</v>
@@ -3770,7 +3770,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>147</v>
@@ -3784,7 +3784,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>148</v>
@@ -3802,7 +3802,7 @@
         <v>105</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>149</v>
@@ -3816,7 +3816,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>150</v>
@@ -3830,7 +3830,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>151</v>
@@ -3844,7 +3844,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>152</v>
@@ -3853,7 +3853,7 @@
         <v>100</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F40" s="50"/>
     </row>
@@ -3862,7 +3862,7 @@
         <v>105</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>153</v>
@@ -3876,7 +3876,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>154</v>
@@ -3894,7 +3894,7 @@
         <v>105</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>155</v>
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>156</v>
@@ -3922,7 +3922,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>157</v>
@@ -3936,7 +3936,7 @@
         <v>105</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>158</v>
@@ -3950,7 +3950,7 @@
         <v>105</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>159</v>
@@ -3964,7 +3964,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>160</v>
@@ -3978,7 +3978,7 @@
         <v>105</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>161</v>
@@ -3992,7 +3992,7 @@
         <v>105</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>162</v>
@@ -4010,7 +4010,7 @@
         <v>105</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>163</v>
@@ -4028,7 +4028,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>164</v>
@@ -4046,7 +4046,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>144</v>
@@ -4064,7 +4064,7 @@
         <v>116</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>145</v>
@@ -4082,7 +4082,7 @@
         <v>116</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>146</v>
@@ -4100,7 +4100,7 @@
         <v>116</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>147</v>
@@ -4116,7 +4116,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>148</v>
@@ -4125,7 +4125,7 @@
         <v>110</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F57" s="50"/>
     </row>
@@ -4134,7 +4134,7 @@
         <v>116</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>149</v>
@@ -4152,7 +4152,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>150</v>
@@ -4170,7 +4170,7 @@
         <v>116</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>151</v>
@@ -4188,7 +4188,7 @@
         <v>116</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>152</v>
@@ -4204,7 +4204,7 @@
         <v>116</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>153</v>
@@ -4222,7 +4222,7 @@
         <v>117</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>144</v>
@@ -4240,7 +4240,7 @@
         <v>117</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>145</v>
@@ -4254,7 +4254,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>146</v>
@@ -4272,7 +4272,7 @@
         <v>117</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>147</v>
@@ -4290,7 +4290,7 @@
         <v>117</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>148</v>
@@ -4304,7 +4304,7 @@
         <v>117</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>149</v>
@@ -4318,7 +4318,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>150</v>
@@ -4332,7 +4332,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>151</v>
@@ -4346,7 +4346,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>152</v>
@@ -4355,7 +4355,7 @@
         <v>138</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F71" s="50"/>
     </row>
@@ -4364,7 +4364,7 @@
         <v>117</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>153</v>
@@ -4382,7 +4382,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>154</v>
@@ -4400,7 +4400,7 @@
         <v>118</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>144</v>
@@ -4418,7 +4418,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>145</v>
@@ -4436,7 +4436,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>146</v>
@@ -4454,7 +4454,7 @@
         <v>118</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>147</v>
@@ -4472,7 +4472,7 @@
         <v>118</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>148</v>
@@ -4488,7 +4488,7 @@
         <v>118</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>149</v>
@@ -4506,7 +4506,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>150</v>
@@ -4524,7 +4524,7 @@
         <v>118</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>151</v>
@@ -4533,7 +4533,7 @@
         <v>82</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F81" s="50"/>
     </row>
@@ -4542,7 +4542,7 @@
         <v>118</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>152</v>
@@ -4560,7 +4560,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>144</v>
@@ -4578,7 +4578,7 @@
         <v>126</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>145</v>
@@ -4587,7 +4587,7 @@
         <v>120</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F84" s="50"/>
     </row>
@@ -4596,7 +4596,7 @@
         <v>126</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>146</v>
@@ -4614,7 +4614,7 @@
         <v>126</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>147</v>
@@ -4628,7 +4628,7 @@
         <v>126</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>148</v>
@@ -4646,7 +4646,7 @@
         <v>126</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>149</v>
@@ -4662,7 +4662,7 @@
         <v>126</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>150</v>
@@ -4680,7 +4680,7 @@
         <v>126</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>151</v>
@@ -4696,7 +4696,7 @@
         <v>126</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>152</v>
@@ -4712,7 +4712,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>153</v>
@@ -4730,7 +4730,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>154</v>
@@ -4748,7 +4748,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>155</v>
@@ -4766,7 +4766,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>156</v>
@@ -4782,7 +4782,7 @@
         <v>126</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>157</v>
@@ -4800,7 +4800,7 @@
         <v>131</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>144</v>
@@ -4818,7 +4818,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>145</v>
@@ -4836,7 +4836,7 @@
         <v>131</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>146</v>
@@ -4854,7 +4854,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>147</v>
@@ -4863,7 +4863,7 @@
         <v>128</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F100" s="50"/>
     </row>
@@ -4872,7 +4872,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>148</v>
@@ -4890,7 +4890,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>149</v>
@@ -4908,7 +4908,7 @@
         <v>131</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>150</v>
@@ -4926,7 +4926,7 @@
         <v>131</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>151</v>
@@ -4944,7 +4944,7 @@
         <v>131</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>152</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865138DB-4FCE-4CFF-94A0-34B5047F40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794CCE5-6BF5-4485-B73D-5BCEC0E8A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="287">
   <si>
     <t>보내는사람</t>
   </si>
@@ -901,14 +901,6 @@
   </si>
   <si>
     <t>수량 표기를 'xN개' 방식으로 변경</t>
-  </si>
-  <si>
-    <t>갑오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호래기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x{qty}개</t>
@@ -2316,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>131</v>
@@ -2399,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>116</v>
@@ -2457,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2528,7 +2520,7 @@
         <v>171</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>172</v>
@@ -2542,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>228</v>
@@ -2585,13 +2577,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2605,13 +2597,13 @@
         <v>227</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2622,16 +2614,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2662,7 +2654,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>174</v>
@@ -2671,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2691,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2702,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>174</v>
@@ -2711,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2731,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2748,10 +2740,10 @@
         <v>176</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2768,10 +2760,10 @@
         <v>176</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2788,10 +2780,10 @@
         <v>176</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2808,10 +2800,10 @@
         <v>176</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2828,10 +2820,10 @@
         <v>177</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2848,10 +2840,10 @@
         <v>177</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2868,10 +2860,10 @@
         <v>177</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2888,10 +2880,10 @@
         <v>177</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.45">
@@ -2965,10 +2957,10 @@
         <v>229</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -2980,16 +2972,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>242</v>
       </c>
       <c r="E26" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="42" t="s">
         <v>247</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3000,16 +2992,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>242</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3020,16 +3012,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>242</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3040,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>242</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>244</v>
@@ -3060,13 +3052,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>242</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>244</v>
@@ -3080,76 +3072,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="42">
-        <v>32</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="42">
-        <v>33</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="42">
-        <v>34</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794CCE5-6BF5-4485-B73D-5BCEC0E8A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80857ECB-D9F0-4663-8DF4-465F2C2F9652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="340">
   <si>
     <t>보내는사람</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>ALL</t>
-  </si>
-  <si>
-    <t>삭제</t>
-  </si>
-  <si>
-    <t>500g</t>
   </si>
   <si>
     <t>마리</t>
@@ -627,15 +621,9 @@
     <t>불필요한 단어 삭제</t>
   </si>
   <si>
-    <t>MASK_TEXT</t>
-  </si>
-  <si>
     <t>CONVERT_WEIGHT</t>
   </si>
   <si>
-    <t>UNMASK_TEXT</t>
-  </si>
-  <si>
     <t>CALC_UNIT</t>
   </si>
   <si>
@@ -645,104 +633,7 @@
     <t>APPEND_SUFFIX</t>
   </si>
   <si>
-    <t>CLEAN_REDUNDANCY</t>
-  </si>
-  <si>
-    <t>/ 무침</t>
-  </si>
-  <si>
-    <t>분류</t>
-  </si>
-  <si>
-    <t>ActionType (명령어)</t>
-  </si>
-  <si>
-    <t>파라미터(값) 예시</t>
-  </si>
-  <si>
-    <t>특정 단어를 찾아 지워라</t>
-  </si>
-  <si>
-    <t>복잡한 패턴(숫자 등)을 찾아 지워라</t>
-  </si>
-  <si>
-    <t>특정 단어를 잠시 숨겨라 (변환 방지)</t>
-  </si>
-  <si>
-    <t>숨겼던 단어를 다시 복구해라</t>
-  </si>
-  <si>
-    <t>변환</t>
-  </si>
-  <si>
-    <t>무게(g)를 찾아 kg로 바꾸고 수량 곱해라</t>
-  </si>
-  <si>
-    <t>숫자+단위(마리 등)를 찾아 수량을 곱해라</t>
-  </si>
-  <si>
-    <t>(옵션명) × 수량 형식으로 바꿔라</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>추가</t>
-  </si>
-  <si>
-    <t>문장 끝에 특정 단어를 붙여라</t>
-  </si>
-  <si>
-    <t>n개</t>
-  </si>
-  <si>
-    <t>정리</t>
-  </si>
-  <si>
-    <t>중복된 단어를 깔끔하게 정리해라</t>
-  </si>
-  <si>
-    <r>
-      <t>특가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF444746"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사이즈</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>^\d+\.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (맨 앞 숫자)</t>
-    </r>
   </si>
   <si>
     <t>&gt;&gt; Rules에 추가할 때 이 "Action Type"을 지정해줘야 함</t>
@@ -1268,6 +1159,238 @@
     <t>갑오징어, 생물오징어, 생물 호래기, 급냉 호래기, 생물 한치, 실속형 5미, 실속형 10미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>사용 목적</t>
+  </si>
+  <si>
+    <t>파라미터 예시</t>
+  </si>
+  <si>
+    <t>작동 결과 예시 (수량 3개 가정)</t>
+  </si>
+  <si>
+    <t>청소</t>
+  </si>
+  <si>
+    <t>단순 글자 삭제 (토씨 하나 안 틀리고 똑같을 때)</t>
+  </si>
+  <si>
+    <t>[특가]</t>
+  </si>
+  <si>
+    <t>x\d+개</t>
+  </si>
+  <si>
+    <t>교체</t>
+  </si>
+  <si>
+    <t>특정 문구가 있으면 문장 전체를 갈아엎기</t>
+  </si>
+  <si>
+    <t>.*자숙.* /// (자숙)</t>
+  </si>
+  <si>
+    <t>계산</t>
+  </si>
+  <si>
+    <t>기존에 있는 숫자를 수량만큼 곱해서 수정</t>
+  </si>
+  <si>
+    <t>무게(kg, g)를 찾아 계산 후 상품 옆에 붙임</t>
+  </si>
+  <si>
+    <t>(없음)</t>
+  </si>
+  <si>
+    <t>APPEND_QTY_UNIT</t>
+  </si>
+  <si>
+    <t>단순 문구 뒤에 추가</t>
+  </si>
+  <si>
+    <t>(냉동)</t>
+  </si>
+  <si>
+    <t>단순 문구 앞에 추가</t>
+  </si>
+  <si>
+    <t>마감</t>
+  </si>
+  <si>
+    <t>맨 마지막에 수량 도장 찍기</t>
+  </si>
+  <si>
+    <t>(x{qty}개)</t>
+  </si>
+  <si>
+    <t>[특가] 문어 → 문어</t>
+  </si>
+  <si>
+    <t>(강추) 패턴 삭제 (숫자나 공백이 변할 때)</t>
+  </si>
+  <si>
+    <t>문어 x1개 → 문어 (x2개, x3개 다 지워짐)</t>
+  </si>
+  <si>
+    <t>문어 자숙으로 부탁해요 → (자숙)</t>
+  </si>
+  <si>
+    <t>문어 1마리 → 문어 3마리</t>
+  </si>
+  <si>
+    <t>장어 1kg → 장어 1kg 3kg (1kg*3=3kg)</t>
+  </si>
+  <si>
+    <t>(오징어용) 무게 무시하고 '수량+단위' 붙임</t>
+  </si>
+  <si>
+    <t>생물 오징어 → 생물 오징어 3팩</t>
+  </si>
+  <si>
+    <t>(소스/반찬) 단어가 있으면 '이름 x수량' 붙임</t>
+  </si>
+  <si>
+    <t>추가 소스 → 추가 소스 소스 x3</t>
+  </si>
+  <si>
+    <t>문어 → 문어 (냉동)</t>
+  </si>
+  <si>
+    <t>문어 → ★문어</t>
+  </si>
+  <si>
+    <t>문어 → 문어 (x3개)</t>
+  </si>
+  <si>
+    <t>기호</t>
+  </si>
+  <si>
+    <t>의미</t>
+  </si>
+  <si>
+    <t>예시</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>0부터 9까지 모든 숫자 하나</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>띄어쓰기, 탭 등 빈칸</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>아무거나</t>
+  </si>
+  <si>
+    <t>숫자, 한글, 영어, 특수문자 뭐든 1글자</t>
+  </si>
+  <si>
+    <t>[가-힣]</t>
+  </si>
+  <si>
+    <t>한글</t>
+  </si>
+  <si>
+    <t>모든 한글</t>
+  </si>
+  <si>
+    <t>[a-z]</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>소문자 a부터 z까지</t>
+  </si>
+  <si>
+    <t>숫자 (Digit)</t>
+  </si>
+  <si>
+    <t>\dkg → 1kg, 5kg</t>
+  </si>
+  <si>
+    <t>공백 (Space)</t>
+  </si>
+  <si>
+    <t>x\s개 → x (공백) 개</t>
+  </si>
+  <si>
+    <t>문. → 문어, 문어, 문A</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1개 이상</t>
+  </si>
+  <si>
+    <t>최소 하나는 있어야 함 (제일 많이 씀)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0개 이상</t>
+  </si>
+  <si>
+    <t>없어도 되고, 많아도 됨 (관대함)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>있거나 없거나</t>
+  </si>
+  <si>
+    <t>딱 1개 있거나, 아예 없거나 (선택사항)</t>
+  </si>
+  <si>
+    <t>\d+ → 1, 10, 500 (숫자 덩어리)</t>
+  </si>
+  <si>
+    <t>\s* → 띄어쓰기가 없거나, 엄청 많거나</t>
+  </si>
+  <si>
+    <t>kg? → k, kg (g가 있어도 되고 없어도 됨)</t>
+  </si>
+  <si>
+    <t>\( : 진짜 여는 괄호 ( 찾기</t>
+  </si>
+  <si>
+    <t>\) : 진짜 닫는 괄호 ) 찾기</t>
+  </si>
+  <si>
+    <t>\. : 진짜 마침표 . 찾기</t>
+  </si>
+  <si>
+    <t>\+ : 진짜 더하기 기호 + 찾기</t>
+  </si>
+  <si>
+    <t>**`</t>
+  </si>
+  <si>
+    <t>`**</t>
+  </si>
+  <si>
+    <t>또는 (OR)</t>
+  </si>
+  <si>
+    <t>이것 이거나 저것</t>
+  </si>
+  <si>
+    <t>**역슬래시(\)**를 붙여서 "이건 명령어가 아니라 그냥 글자야!"라고 알려줘야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1276,7 +1399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,15 +1543,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1615,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1734,22 +1848,19 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1778,13 +1889,15 @@
     <xf numFmtId="176" fontId="15" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2309,136 +2422,136 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="7.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="57">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="58">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>131</v>
+      <c r="C2" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>131</v>
+      <c r="B3" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="58">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>89</v>
+      <c r="B4" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>95</v>
+      <c r="B5" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="58">
+      <c r="A6" s="57">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>105</v>
+      <c r="B6" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="58">
+      <c r="A7" s="57">
         <v>2</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="57">
+        <v>2</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="57">
+        <v>2</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="58">
+    <row r="10" spans="1:3">
+      <c r="A10" s="57">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="58">
-        <v>2</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="58">
-        <v>2</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>126</v>
+      <c r="B10" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="58">
+      <c r="A11" s="57">
         <v>999</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>131</v>
+      <c r="B11" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2451,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2471,19 +2584,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2497,13 +2610,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2517,13 +2630,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2534,16 +2647,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2551,19 +2664,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2577,13 +2690,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2594,16 +2707,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2614,16 +2727,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2631,19 +2744,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>233</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2654,16 +2767,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2674,16 +2787,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2694,16 +2807,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2717,13 +2830,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2737,13 +2850,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2757,13 +2870,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2777,13 +2890,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2797,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2817,13 +2930,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2837,13 +2950,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2857,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2877,90 +2990,90 @@
         <v>7</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.45">
       <c r="A22" s="42">
         <v>22</v>
       </c>
-      <c r="B22" s="58" t="s">
-        <v>126</v>
+      <c r="B22" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.45">
       <c r="A23" s="42">
         <v>23</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>95</v>
+      <c r="B23" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.45">
       <c r="A24" s="42">
         <v>24</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>126</v>
+      <c r="B24" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
       <c r="A25" s="42">
         <v>25</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>126</v>
+      <c r="B25" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -2972,16 +3085,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2992,16 +3105,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3012,16 +3125,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3032,16 +3145,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3052,16 +3165,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3075,13 +3188,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3111,601 +3224,601 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>167</v>
-      </c>
       <c r="F1" s="41" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="34"/>
-      <c r="F2" s="48"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="34"/>
-      <c r="F3" s="48"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="35"/>
-      <c r="F4" s="49" t="s">
-        <v>139</v>
+      <c r="F4" s="48" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="35"/>
-      <c r="F5" s="49" t="s">
-        <v>140</v>
+      <c r="F5" s="48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="34"/>
-      <c r="F6" s="48"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="34"/>
-      <c r="F7" s="48"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="35"/>
-      <c r="F8" s="49" t="s">
-        <v>142</v>
+      <c r="F8" s="48" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="34"/>
-      <c r="F11" s="48"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="34"/>
-      <c r="F12" s="48"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="34"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="34"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="34"/>
-      <c r="F18" s="48"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="34"/>
-      <c r="F19" s="48"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="34"/>
-      <c r="F21" s="48"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="48"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="37"/>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="51" t="s">
-        <v>142</v>
+      <c r="F25" s="50" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F28" s="49"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="37"/>
-      <c r="F30" s="51"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -3713,31 +3826,31 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -3745,13 +3858,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -3759,13 +3872,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -3773,31 +3886,31 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -3805,31 +3918,31 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -3837,13 +3950,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -3851,13 +3964,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -3865,13 +3978,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -3879,13 +3992,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -3893,13 +4006,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -3907,13 +4020,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3921,261 +4034,261 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50" s="31"/>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E51" s="31"/>
-      <c r="F51" s="52" t="s">
-        <v>141</v>
+      <c r="F51" s="51" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E52" s="31"/>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="38"/>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="38"/>
-      <c r="F54" s="53" t="s">
-        <v>141</v>
+      <c r="F54" s="52" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="38"/>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="38"/>
-      <c r="F56" s="53"/>
+      <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E61" s="38"/>
-      <c r="F61" s="53"/>
+      <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -4183,49 +4296,49 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -4233,13 +4346,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -4247,13 +4360,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
@@ -4261,13 +4374,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -4275,34 +4388,34 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F71" s="49"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="40">
@@ -4311,506 +4424,506 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E74" s="34"/>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E75" s="34"/>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F76" s="49"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F77" s="49"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="34"/>
-      <c r="F78" s="48"/>
+      <c r="F78" s="47"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F79" s="49"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E80" s="34"/>
-      <c r="F80" s="57">
+      <c r="F80" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F81" s="49"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F83" s="49"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F84" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F84" s="49"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E85" s="28"/>
-      <c r="F85" s="54">
+      <c r="F85" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="54"/>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F87" s="49"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E88" s="27"/>
-      <c r="F88" s="55"/>
+      <c r="F88" s="54"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F89" s="49"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E90" s="28"/>
-      <c r="F90" s="54"/>
+      <c r="F90" s="53"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E91" s="28"/>
-      <c r="F91" s="54"/>
+      <c r="F91" s="53"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E92" s="27"/>
-      <c r="F92" s="55" t="s">
+      <c r="F92" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="27"/>
-      <c r="F93" s="55" t="s">
-        <v>141</v>
+      <c r="F93" s="54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="27"/>
-      <c r="F94" s="55" t="s">
+      <c r="F94" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="28"/>
-      <c r="F95" s="54"/>
+      <c r="F95" s="53"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F96" s="49"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="F97" s="49"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D98" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="F98" s="49"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="50"/>
+        <v>24</v>
+      </c>
+      <c r="F99" s="49"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F100" s="50"/>
+        <v>202</v>
+      </c>
+      <c r="F100" s="49"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="32">
@@ -4819,31 +4932,31 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="50"/>
+        <v>25</v>
+      </c>
+      <c r="F102" s="49"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>0</v>
@@ -4855,16 +4968,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="32" t="s">
@@ -4873,20 +4986,20 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4931,164 +5044,399 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52549504-4590-40BA-B8EA-337736F4028C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.92578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.35546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="46" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>200</v>
+      <c r="D15" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5133,179 +5481,179 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="45">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P4" s="12">
         <v>1</v>
@@ -5314,98 +5662,98 @@
         <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="20"/>
       <c r="I5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R6" s="2">
         <v>1</v>
@@ -5413,88 +5761,88 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="20"/>
       <c r="I7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="34.75">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="20"/>
       <c r="I8" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>0</v>
@@ -5505,43 +5853,43 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>3</v>
@@ -5549,83 +5897,83 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="17"/>
       <c r="G11" s="14"/>
       <c r="H11" s="20"/>
       <c r="I11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L11" s="8">
         <v>1</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>1</v>
@@ -5633,46 +5981,46 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="20"/>
@@ -5685,83 +6033,83 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="17"/>
       <c r="G14" s="14"/>
       <c r="H14" s="20"/>
       <c r="O14" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="17"/>
       <c r="G15" s="14"/>
       <c r="H15" s="20"/>
       <c r="O15" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="17"/>
       <c r="G18" s="14"/>
@@ -5769,13 +6117,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="17"/>
       <c r="G19" s="14"/>
@@ -5783,19 +6131,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>1</v>
@@ -5803,35 +6151,35 @@
     </row>
     <row r="21" spans="1:8" ht="46.3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="17"/>
       <c r="G21" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="17"/>
       <c r="G22" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>3</v>
@@ -5839,205 +6187,205 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="25"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="25"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="25"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="25"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="25"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="25"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="25"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="25"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="25"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="25"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="25"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="25"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="25"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="25"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="25"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" s="25"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="25"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="25"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="25"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="25"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="25"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="25"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="25"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="25"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="25"/>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80857ECB-D9F0-4663-8DF4-465F2C2F9652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55EF56-D988-427D-AD3F-9AF4ACDDA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="339">
   <si>
     <t>보내는사람</t>
   </si>
@@ -798,16 +798,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무침</t>
-  </si>
-  <si>
-    <t>'무침' 글자가 있으면 수량을 '3개' 처럼 표시</t>
-  </si>
-  <si>
     <t>소스</t>
-  </si>
-  <si>
-    <t>'소스' 글자가 있으면 수량을 '3개' 처럼 표시</t>
   </si>
   <si>
     <t>젓갈</t>
@@ -1389,6 +1380,14 @@
   </si>
   <si>
     <t>**역슬래시(\)**를 붙여서 "이건 명령어가 아니라 그냥 글자야!"라고 알려줘야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무침" 글자가 보이면 뒤에 "x{qty}" 붙임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2460,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2504,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>114</v>
@@ -2562,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2633,7 +2632,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2647,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>204</v>
@@ -2690,13 +2689,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2710,13 +2709,13 @@
         <v>203</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2727,16 +2726,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2767,7 +2766,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>171</v>
@@ -2776,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2796,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2807,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>171</v>
@@ -2816,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2836,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2853,10 +2852,10 @@
         <v>172</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2873,10 +2872,10 @@
         <v>172</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2893,10 +2892,10 @@
         <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2913,10 +2912,10 @@
         <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2933,10 +2932,10 @@
         <v>173</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2953,10 +2952,10 @@
         <v>173</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2973,10 +2972,10 @@
         <v>173</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2993,30 +2992,30 @@
         <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="42">
         <v>22</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>124</v>
+      <c r="B22" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.45">
@@ -3024,19 +3023,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.45">
@@ -3044,19 +3043,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
@@ -3070,42 +3069,42 @@
         <v>205</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.45">
       <c r="A26" s="42">
-        <v>26</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>223</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>218</v>
@@ -3114,32 +3113,32 @@
         <v>221</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>7</v>
@@ -3159,42 +3158,22 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="42">
-        <v>31</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5046,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52549504-4590-40BA-B8EA-337736F4028C}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5070,118 +5049,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>263</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5192,13 +5171,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5209,13 +5188,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5226,217 +5205,217 @@
         <v>215</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>216</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A55EF56-D988-427D-AD3F-9AF4ACDDA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41A27B-B2A9-41F1-A229-AF8C31841C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="341">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1388,6 +1388,14 @@
   </si>
   <si>
     <t>"무침" 글자가 보이면 뒤에 "x{qty}" 붙임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이무침 만능소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이무침 만능소스' 글자가 있으면 수량을 '3개' 처럼 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2561,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2826,16 +2834,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2852,10 +2860,10 @@
         <v>172</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2872,10 +2880,10 @@
         <v>172</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2892,10 +2900,10 @@
         <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2912,10 +2920,10 @@
         <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2929,13 +2937,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2952,10 +2960,10 @@
         <v>173</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2972,10 +2980,10 @@
         <v>173</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2992,10 +3000,10 @@
         <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3012,30 +3020,30 @@
         <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="42">
         <v>23</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>124</v>
+      <c r="B23" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.45">
@@ -3043,19 +3051,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
@@ -3063,19 +3071,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.45">
@@ -3089,32 +3097,32 @@
         <v>205</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.45">
       <c r="A27" s="42">
         <v>29</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>7</v>
+      <c r="B27" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>224</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
@@ -3124,16 +3132,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3144,7 +3152,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>218</v>
@@ -3164,15 +3172,35 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="42">
+        <v>33</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="C31" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E31" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>226</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD41A27B-B2A9-41F1-A229-AF8C31841C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA7347-83FD-41B7-929B-7AC506B2F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="343">
   <si>
     <t>보내는사람</t>
   </si>
@@ -921,8 +921,268 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>갑오징어, 생물오징어, 생물 호래기, 급냉 호래기, 생물 한치, 실속형 5미, 실속형 10미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>사용 목적</t>
+  </si>
+  <si>
+    <t>파라미터 예시</t>
+  </si>
+  <si>
+    <t>작동 결과 예시 (수량 3개 가정)</t>
+  </si>
+  <si>
+    <t>청소</t>
+  </si>
+  <si>
+    <t>단순 글자 삭제 (토씨 하나 안 틀리고 똑같을 때)</t>
+  </si>
+  <si>
+    <t>[특가]</t>
+  </si>
+  <si>
+    <t>x\d+개</t>
+  </si>
+  <si>
+    <t>교체</t>
+  </si>
+  <si>
+    <t>특정 문구가 있으면 문장 전체를 갈아엎기</t>
+  </si>
+  <si>
+    <t>.*자숙.* /// (자숙)</t>
+  </si>
+  <si>
+    <t>계산</t>
+  </si>
+  <si>
+    <t>기존에 있는 숫자를 수량만큼 곱해서 수정</t>
+  </si>
+  <si>
+    <t>무게(kg, g)를 찾아 계산 후 상품 옆에 붙임</t>
+  </si>
+  <si>
+    <t>(없음)</t>
+  </si>
+  <si>
+    <t>APPEND_QTY_UNIT</t>
+  </si>
+  <si>
+    <t>단순 문구 뒤에 추가</t>
+  </si>
+  <si>
+    <t>(냉동)</t>
+  </si>
+  <si>
+    <t>단순 문구 앞에 추가</t>
+  </si>
+  <si>
+    <t>마감</t>
+  </si>
+  <si>
+    <t>맨 마지막에 수량 도장 찍기</t>
+  </si>
+  <si>
+    <t>(x{qty}개)</t>
+  </si>
+  <si>
+    <t>[특가] 문어 → 문어</t>
+  </si>
+  <si>
+    <t>(강추) 패턴 삭제 (숫자나 공백이 변할 때)</t>
+  </si>
+  <si>
+    <t>문어 x1개 → 문어 (x2개, x3개 다 지워짐)</t>
+  </si>
+  <si>
+    <t>문어 자숙으로 부탁해요 → (자숙)</t>
+  </si>
+  <si>
+    <t>문어 1마리 → 문어 3마리</t>
+  </si>
+  <si>
+    <t>장어 1kg → 장어 1kg 3kg (1kg*3=3kg)</t>
+  </si>
+  <si>
+    <t>(오징어용) 무게 무시하고 '수량+단위' 붙임</t>
+  </si>
+  <si>
+    <t>생물 오징어 → 생물 오징어 3팩</t>
+  </si>
+  <si>
+    <t>(소스/반찬) 단어가 있으면 '이름 x수량' 붙임</t>
+  </si>
+  <si>
+    <t>추가 소스 → 추가 소스 소스 x3</t>
+  </si>
+  <si>
+    <t>문어 → 문어 (냉동)</t>
+  </si>
+  <si>
+    <t>문어 → ★문어</t>
+  </si>
+  <si>
+    <t>문어 → 문어 (x3개)</t>
+  </si>
+  <si>
+    <t>기호</t>
+  </si>
+  <si>
+    <t>의미</t>
+  </si>
+  <si>
+    <t>예시</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>0부터 9까지 모든 숫자 하나</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>띄어쓰기, 탭 등 빈칸</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>아무거나</t>
+  </si>
+  <si>
+    <t>숫자, 한글, 영어, 특수문자 뭐든 1글자</t>
+  </si>
+  <si>
+    <t>[가-힣]</t>
+  </si>
+  <si>
+    <t>한글</t>
+  </si>
+  <si>
+    <t>모든 한글</t>
+  </si>
+  <si>
+    <t>[a-z]</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>소문자 a부터 z까지</t>
+  </si>
+  <si>
+    <t>숫자 (Digit)</t>
+  </si>
+  <si>
+    <t>\dkg → 1kg, 5kg</t>
+  </si>
+  <si>
+    <t>공백 (Space)</t>
+  </si>
+  <si>
+    <t>x\s개 → x (공백) 개</t>
+  </si>
+  <si>
+    <t>문. → 문어, 문어, 문A</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1개 이상</t>
+  </si>
+  <si>
+    <t>최소 하나는 있어야 함 (제일 많이 씀)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0개 이상</t>
+  </si>
+  <si>
+    <t>없어도 되고, 많아도 됨 (관대함)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>있거나 없거나</t>
+  </si>
+  <si>
+    <t>딱 1개 있거나, 아예 없거나 (선택사항)</t>
+  </si>
+  <si>
+    <t>\d+ → 1, 10, 500 (숫자 덩어리)</t>
+  </si>
+  <si>
+    <t>\s* → 띄어쓰기가 없거나, 엄청 많거나</t>
+  </si>
+  <si>
+    <t>kg? → k, kg (g가 있어도 되고 없어도 됨)</t>
+  </si>
+  <si>
+    <t>\( : 진짜 여는 괄호 ( 찾기</t>
+  </si>
+  <si>
+    <t>\) : 진짜 닫는 괄호 ) 찾기</t>
+  </si>
+  <si>
+    <t>\. : 진짜 마침표 . 찾기</t>
+  </si>
+  <si>
+    <t>\+ : 진짜 더하기 기호 + 찾기</t>
+  </si>
+  <si>
+    <t>**`</t>
+  </si>
+  <si>
+    <t>`**</t>
+  </si>
+  <si>
+    <t>또는 (OR)</t>
+  </si>
+  <si>
+    <t>이것 이거나 저것</t>
+  </si>
+  <si>
+    <t>**역슬래시(\)**를 붙여서 "이건 명령어가 아니라 그냥 글자야!"라고 알려줘야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무침" 글자가 보이면 뒤에 "x{qty}" 붙임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이무침 만능소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이무침 만능소스' 글자가 있으면 수량을 '3개' 처럼 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x{qty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 반건조생선 선택: , 올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, +, </t>
+      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 반건조생선 선택: , 올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, </t>
     </r>
     <r>
       <rPr>
@@ -1144,258 +1404,6 @@
       </rPr>
       <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑오징어, 생물오징어, 생물 호래기, 급냉 호래기, 생물 한치, 실속형 5미, 실속형 10미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>사용 목적</t>
-  </si>
-  <si>
-    <t>파라미터 예시</t>
-  </si>
-  <si>
-    <t>작동 결과 예시 (수량 3개 가정)</t>
-  </si>
-  <si>
-    <t>청소</t>
-  </si>
-  <si>
-    <t>단순 글자 삭제 (토씨 하나 안 틀리고 똑같을 때)</t>
-  </si>
-  <si>
-    <t>[특가]</t>
-  </si>
-  <si>
-    <t>x\d+개</t>
-  </si>
-  <si>
-    <t>교체</t>
-  </si>
-  <si>
-    <t>특정 문구가 있으면 문장 전체를 갈아엎기</t>
-  </si>
-  <si>
-    <t>.*자숙.* /// (자숙)</t>
-  </si>
-  <si>
-    <t>계산</t>
-  </si>
-  <si>
-    <t>기존에 있는 숫자를 수량만큼 곱해서 수정</t>
-  </si>
-  <si>
-    <t>무게(kg, g)를 찾아 계산 후 상품 옆에 붙임</t>
-  </si>
-  <si>
-    <t>(없음)</t>
-  </si>
-  <si>
-    <t>APPEND_QTY_UNIT</t>
-  </si>
-  <si>
-    <t>단순 문구 뒤에 추가</t>
-  </si>
-  <si>
-    <t>(냉동)</t>
-  </si>
-  <si>
-    <t>단순 문구 앞에 추가</t>
-  </si>
-  <si>
-    <t>마감</t>
-  </si>
-  <si>
-    <t>맨 마지막에 수량 도장 찍기</t>
-  </si>
-  <si>
-    <t>(x{qty}개)</t>
-  </si>
-  <si>
-    <t>[특가] 문어 → 문어</t>
-  </si>
-  <si>
-    <t>(강추) 패턴 삭제 (숫자나 공백이 변할 때)</t>
-  </si>
-  <si>
-    <t>문어 x1개 → 문어 (x2개, x3개 다 지워짐)</t>
-  </si>
-  <si>
-    <t>문어 자숙으로 부탁해요 → (자숙)</t>
-  </si>
-  <si>
-    <t>문어 1마리 → 문어 3마리</t>
-  </si>
-  <si>
-    <t>장어 1kg → 장어 1kg 3kg (1kg*3=3kg)</t>
-  </si>
-  <si>
-    <t>(오징어용) 무게 무시하고 '수량+단위' 붙임</t>
-  </si>
-  <si>
-    <t>생물 오징어 → 생물 오징어 3팩</t>
-  </si>
-  <si>
-    <t>(소스/반찬) 단어가 있으면 '이름 x수량' 붙임</t>
-  </si>
-  <si>
-    <t>추가 소스 → 추가 소스 소스 x3</t>
-  </si>
-  <si>
-    <t>문어 → 문어 (냉동)</t>
-  </si>
-  <si>
-    <t>문어 → ★문어</t>
-  </si>
-  <si>
-    <t>문어 → 문어 (x3개)</t>
-  </si>
-  <si>
-    <t>기호</t>
-  </si>
-  <si>
-    <t>의미</t>
-  </si>
-  <si>
-    <t>예시</t>
-  </si>
-  <si>
-    <t>\d</t>
-  </si>
-  <si>
-    <t>0부터 9까지 모든 숫자 하나</t>
-  </si>
-  <si>
-    <t>\s</t>
-  </si>
-  <si>
-    <t>띄어쓰기, 탭 등 빈칸</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>아무거나</t>
-  </si>
-  <si>
-    <t>숫자, 한글, 영어, 특수문자 뭐든 1글자</t>
-  </si>
-  <si>
-    <t>[가-힣]</t>
-  </si>
-  <si>
-    <t>한글</t>
-  </si>
-  <si>
-    <t>모든 한글</t>
-  </si>
-  <si>
-    <t>[a-z]</t>
-  </si>
-  <si>
-    <t>영어</t>
-  </si>
-  <si>
-    <t>소문자 a부터 z까지</t>
-  </si>
-  <si>
-    <t>숫자 (Digit)</t>
-  </si>
-  <si>
-    <t>\dkg → 1kg, 5kg</t>
-  </si>
-  <si>
-    <t>공백 (Space)</t>
-  </si>
-  <si>
-    <t>x\s개 → x (공백) 개</t>
-  </si>
-  <si>
-    <t>문. → 문어, 문어, 문A</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>1개 이상</t>
-  </si>
-  <si>
-    <t>최소 하나는 있어야 함 (제일 많이 씀)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0개 이상</t>
-  </si>
-  <si>
-    <t>없어도 되고, 많아도 됨 (관대함)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>있거나 없거나</t>
-  </si>
-  <si>
-    <t>딱 1개 있거나, 아예 없거나 (선택사항)</t>
-  </si>
-  <si>
-    <t>\d+ → 1, 10, 500 (숫자 덩어리)</t>
-  </si>
-  <si>
-    <t>\s* → 띄어쓰기가 없거나, 엄청 많거나</t>
-  </si>
-  <si>
-    <t>kg? → k, kg (g가 있어도 되고 없어도 됨)</t>
-  </si>
-  <si>
-    <t>\( : 진짜 여는 괄호 ( 찾기</t>
-  </si>
-  <si>
-    <t>\) : 진짜 닫는 괄호 ) 찾기</t>
-  </si>
-  <si>
-    <t>\. : 진짜 마침표 . 찾기</t>
-  </si>
-  <si>
-    <t>\+ : 진짜 더하기 기호 + 찾기</t>
-  </si>
-  <si>
-    <t>**`</t>
-  </si>
-  <si>
-    <t>`**</t>
-  </si>
-  <si>
-    <t>또는 (OR)</t>
-  </si>
-  <si>
-    <t>이것 이거나 저것</t>
-  </si>
-  <si>
-    <t>**역슬래시(\)**를 붙여서 "이건 명령어가 아니라 그냥 글자야!"라고 알려줘야 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"무침" 글자가 보이면 뒤에 "x{qty}" 붙임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골뱅이무침 만능소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골뱅이무침 만능소스' 글자가 있으면 수량을 '3개' 처럼 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>114</v>
@@ -2569,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2640,7 +2648,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2834,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>218</v>
@@ -2843,7 +2851,7 @@
         <v>221</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2874,17 +2882,15 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>231</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
@@ -2900,10 +2906,10 @@
         <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2920,10 +2926,10 @@
         <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2940,10 +2946,10 @@
         <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2957,13 +2963,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2980,10 +2986,10 @@
         <v>173</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3000,10 +3006,10 @@
         <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3020,10 +3026,10 @@
         <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3040,30 +3046,30 @@
         <v>173</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.45">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="42">
         <v>24</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>124</v>
+      <c r="B24" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
@@ -3071,19 +3077,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.45">
@@ -3091,19 +3097,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.45">
@@ -3117,32 +3123,32 @@
         <v>205</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="1:6">
+        <v>216</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.45">
       <c r="A28" s="42">
         <v>30</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>7</v>
+      <c r="B28" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>224</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
@@ -3152,16 +3158,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3172,7 +3178,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>218</v>
@@ -3192,15 +3198,35 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="42">
+        <v>34</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="C32" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E32" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F32" s="42" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5077,118 +5103,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>262</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>244</v>
       </c>
       <c r="C5" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>274</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>227</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5199,13 +5225,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>222</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5216,13 +5242,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>277</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5233,217 +5259,217 @@
         <v>215</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>216</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>281</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA7347-83FD-41B7-929B-7AC506B2F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB0CE3-197A-4307-B4E3-DED0F856B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,10 +693,6 @@
   </si>
   <si>
     <t>홍어, 참홍어, 흑산도 홍어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식혜, 일반식혜, 호박식혜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1404,6 +1400,10 @@
       </rPr>
       <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반식혜 1.5L, 호박식혜 1.5L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>129</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2519,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>114</v>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>116</v>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>124</v>
@@ -2580,7 +2580,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2648,7 +2648,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2662,16 +2662,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2679,19 +2679,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>207</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2705,13 +2705,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>245</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2722,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2742,16 +2742,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2759,10 +2759,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>171</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2782,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>171</v>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2802,7 +2802,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>171</v>
@@ -2811,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2822,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>171</v>
@@ -2831,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2842,16 +2842,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="59" t="s">
         <v>338</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2871,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2882,13 +2882,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>341</v>
       </c>
       <c r="F15" s="42"/>
     </row>
@@ -2906,10 +2906,10 @@
         <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2926,10 +2926,10 @@
         <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F17" s="42" t="s">
         <v>232</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2946,10 +2946,10 @@
         <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>253</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2966,10 +2966,10 @@
         <v>172</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2986,10 +2986,10 @@
         <v>173</v>
       </c>
       <c r="E20" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="42" t="s">
         <v>235</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>237</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3026,10 +3026,10 @@
         <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="42" t="s">
         <v>239</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3046,10 +3046,10 @@
         <v>173</v>
       </c>
       <c r="E23" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="42" t="s">
         <v>336</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3066,10 +3066,10 @@
         <v>173</v>
       </c>
       <c r="E24" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>247</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.45">
@@ -3080,16 +3080,16 @@
         <v>124</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.45">
@@ -3100,16 +3100,16 @@
         <v>93</v>
       </c>
       <c r="C26" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="42" t="s">
         <v>212</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>213</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.45">
@@ -3120,16 +3120,16 @@
         <v>124</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="F27" s="42" t="s">
         <v>216</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.45">
@@ -3140,13 +3140,13 @@
         <v>124</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>242</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>243</v>
       </c>
       <c r="F28" s="42"/>
     </row>
@@ -3158,16 +3158,16 @@
         <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3178,16 +3178,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="F30" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3198,16 +3198,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="F31" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3224,10 +3224,10 @@
         <v>166</v>
       </c>
       <c r="E32" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="42" t="s">
         <v>225</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3280,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>142</v>
@@ -3296,7 +3296,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>143</v>
@@ -3312,7 +3312,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>144</v>
@@ -3330,7 +3330,7 @@
         <v>87</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>145</v>
@@ -3348,7 +3348,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>146</v>
@@ -3364,7 +3364,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>147</v>
@@ -3380,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>148</v>
@@ -3398,7 +3398,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>149</v>
@@ -3416,7 +3416,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>150</v>
@@ -3434,7 +3434,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>151</v>
@@ -3450,7 +3450,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>152</v>
@@ -3466,7 +3466,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>153</v>
@@ -3484,7 +3484,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>154</v>
@@ -3500,7 +3500,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>155</v>
@@ -3516,7 +3516,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>156</v>
@@ -3525,7 +3525,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -3534,7 +3534,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>157</v>
@@ -3552,7 +3552,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>158</v>
@@ -3568,7 +3568,7 @@
         <v>87</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>159</v>
@@ -3584,7 +3584,7 @@
         <v>87</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>160</v>
@@ -3602,7 +3602,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>161</v>
@@ -3618,7 +3618,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>162</v>
@@ -3634,7 +3634,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>142</v>
@@ -3652,7 +3652,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>143</v>
@@ -3670,7 +3670,7 @@
         <v>93</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>144</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>145</v>
@@ -3697,7 +3697,7 @@
         <v>88</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="49"/>
     </row>
@@ -3706,7 +3706,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>146</v>
@@ -3724,7 +3724,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>147</v>
@@ -3742,7 +3742,7 @@
         <v>93</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>148</v>
@@ -3760,7 +3760,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>149</v>
@@ -3776,7 +3776,7 @@
         <v>93</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>150</v>
@@ -3794,7 +3794,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>142</v>
@@ -3812,7 +3812,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>143</v>
@@ -3830,7 +3830,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>144</v>
@@ -3848,7 +3848,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>145</v>
@@ -3862,7 +3862,7 @@
         <v>103</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>146</v>
@@ -3880,7 +3880,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>147</v>
@@ -3894,7 +3894,7 @@
         <v>103</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>148</v>
@@ -3908,7 +3908,7 @@
         <v>103</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>149</v>
@@ -3922,7 +3922,7 @@
         <v>103</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>150</v>
@@ -3931,7 +3931,7 @@
         <v>98</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" s="49"/>
     </row>
@@ -3940,7 +3940,7 @@
         <v>103</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>151</v>
@@ -3954,7 +3954,7 @@
         <v>103</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>152</v>
@@ -3972,7 +3972,7 @@
         <v>103</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>153</v>
@@ -3986,7 +3986,7 @@
         <v>103</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>154</v>
@@ -4000,7 +4000,7 @@
         <v>103</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>155</v>
@@ -4014,7 +4014,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>156</v>
@@ -4028,7 +4028,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>157</v>
@@ -4042,7 +4042,7 @@
         <v>103</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>158</v>
@@ -4056,7 +4056,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>159</v>
@@ -4070,7 +4070,7 @@
         <v>103</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>160</v>
@@ -4088,7 +4088,7 @@
         <v>103</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>161</v>
@@ -4106,7 +4106,7 @@
         <v>103</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>162</v>
@@ -4124,7 +4124,7 @@
         <v>114</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>142</v>
@@ -4142,7 +4142,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>143</v>
@@ -4160,7 +4160,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>144</v>
@@ -4178,7 +4178,7 @@
         <v>114</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>145</v>
@@ -4194,7 +4194,7 @@
         <v>114</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>146</v>
@@ -4203,7 +4203,7 @@
         <v>108</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F57" s="49"/>
     </row>
@@ -4212,7 +4212,7 @@
         <v>114</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>147</v>
@@ -4230,7 +4230,7 @@
         <v>114</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>148</v>
@@ -4248,7 +4248,7 @@
         <v>114</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>149</v>
@@ -4266,7 +4266,7 @@
         <v>114</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>150</v>
@@ -4282,7 +4282,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>151</v>
@@ -4300,7 +4300,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>142</v>
@@ -4318,7 +4318,7 @@
         <v>115</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>143</v>
@@ -4332,7 +4332,7 @@
         <v>115</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>144</v>
@@ -4350,7 +4350,7 @@
         <v>115</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>145</v>
@@ -4368,7 +4368,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>146</v>
@@ -4382,7 +4382,7 @@
         <v>115</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>147</v>
@@ -4396,7 +4396,7 @@
         <v>115</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>148</v>
@@ -4410,7 +4410,7 @@
         <v>115</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>149</v>
@@ -4424,7 +4424,7 @@
         <v>115</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>150</v>
@@ -4433,7 +4433,7 @@
         <v>136</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="49"/>
     </row>
@@ -4442,7 +4442,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>151</v>
@@ -4460,7 +4460,7 @@
         <v>115</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>152</v>
@@ -4478,7 +4478,7 @@
         <v>116</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>142</v>
@@ -4496,7 +4496,7 @@
         <v>116</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>143</v>
@@ -4514,7 +4514,7 @@
         <v>116</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>144</v>
@@ -4532,7 +4532,7 @@
         <v>116</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>145</v>
@@ -4550,7 +4550,7 @@
         <v>116</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>146</v>
@@ -4566,7 +4566,7 @@
         <v>116</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>147</v>
@@ -4584,7 +4584,7 @@
         <v>116</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>148</v>
@@ -4602,7 +4602,7 @@
         <v>116</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>149</v>
@@ -4611,7 +4611,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="49"/>
     </row>
@@ -4620,7 +4620,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>150</v>
@@ -4638,7 +4638,7 @@
         <v>124</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>142</v>
@@ -4656,7 +4656,7 @@
         <v>124</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>143</v>
@@ -4665,7 +4665,7 @@
         <v>118</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F84" s="49"/>
     </row>
@@ -4674,7 +4674,7 @@
         <v>124</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>144</v>
@@ -4692,7 +4692,7 @@
         <v>124</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>145</v>
@@ -4706,7 +4706,7 @@
         <v>124</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>146</v>
@@ -4724,7 +4724,7 @@
         <v>124</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>147</v>
@@ -4740,7 +4740,7 @@
         <v>124</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>148</v>
@@ -4758,7 +4758,7 @@
         <v>124</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>149</v>
@@ -4774,7 +4774,7 @@
         <v>124</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>150</v>
@@ -4790,7 +4790,7 @@
         <v>124</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>151</v>
@@ -4808,7 +4808,7 @@
         <v>124</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>152</v>
@@ -4826,7 +4826,7 @@
         <v>124</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>153</v>
@@ -4844,7 +4844,7 @@
         <v>124</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>154</v>
@@ -4860,7 +4860,7 @@
         <v>124</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>155</v>
@@ -4878,7 +4878,7 @@
         <v>129</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>142</v>
@@ -4896,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>143</v>
@@ -4914,7 +4914,7 @@
         <v>129</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>144</v>
@@ -4932,7 +4932,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>145</v>
@@ -4941,7 +4941,7 @@
         <v>126</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F100" s="49"/>
     </row>
@@ -4950,7 +4950,7 @@
         <v>129</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>146</v>
@@ -4968,7 +4968,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>147</v>
@@ -4986,7 +4986,7 @@
         <v>129</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>148</v>
@@ -5004,7 +5004,7 @@
         <v>129</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>149</v>
@@ -5022,7 +5022,7 @@
         <v>129</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>150</v>
@@ -5103,118 +5103,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>261</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>265</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>282</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>269</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>273</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>287</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5225,13 +5225,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>289</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5242,13 +5242,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>276</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5256,220 +5256,220 @@
         <v>175</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>216</v>
-      </c>
       <c r="E11" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="60" t="s">
+      <c r="D12" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>280</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB0CE3-197A-4307-B4E3-DED0F856B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613213B-C144-4483-A918-893F29FE5E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="347">
   <si>
     <t>보내는사람</t>
   </si>
@@ -868,9 +868,6 @@
     <t>REPLACE_REGEX_SUB</t>
   </si>
   <si>
-    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
-  </si>
-  <si>
     <t>해당 문구가 있으면 전체를 (자숙)으로 변경</t>
   </si>
   <si>
@@ -1174,6 +1171,14 @@
   </si>
   <si>
     <t>x{qty}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반식혜 1.5L, 호박식혜 1.5L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반식혜, 호박식혜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1398,12 +1403,24 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: </t>
+      <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: , 수제식혜 선택: </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반식혜 1.5L, 호박식혜 1.5L</t>
+    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLACE_REGEX_SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라벨 /// 쭈구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문구가 있으면 그 문구를 쭈구리로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2434,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2475,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2483,13 +2500,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2497,10 +2514,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2508,10 +2525,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2519,10 +2536,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2530,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2541,10 +2558,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2552,20 +2569,31 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="57">
+        <v>2</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="57">
         <v>999</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B12" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C12" s="57" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2577,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2648,7 +2676,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2662,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
@@ -2705,13 +2733,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="E6" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>244</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2722,16 +2750,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>226</v>
+        <v>243</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2742,10 +2770,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>226</v>
@@ -2759,19 +2787,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>208</v>
+        <v>226</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2779,10 +2807,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>171</v>
@@ -2790,8 +2818,8 @@
       <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>249</v>
+      <c r="F10" s="59" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2802,7 +2830,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>171</v>
@@ -2811,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2822,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>171</v>
@@ -2831,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2842,16 +2870,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>338</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2862,16 +2890,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2882,15 +2910,17 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
@@ -2900,17 +2930,15 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>230</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
@@ -2926,10 +2954,10 @@
         <v>172</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2946,10 +2974,10 @@
         <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2966,10 +2994,10 @@
         <v>172</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2983,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3006,10 +3034,10 @@
         <v>173</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3026,10 +3054,10 @@
         <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3046,10 +3074,10 @@
         <v>173</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3066,30 +3094,30 @@
         <v>173</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="42">
         <v>25</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>124</v>
+      <c r="B25" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.45">
@@ -3097,19 +3125,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.45">
@@ -3117,19 +3145,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.45">
@@ -3143,32 +3171,32 @@
         <v>204</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>215</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.45">
       <c r="A29" s="42">
         <v>31</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>7</v>
+      <c r="B29" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>223</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42">
@@ -3178,16 +3206,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>217</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3198,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>217</v>
@@ -3218,15 +3246,35 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="42">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="C33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E33" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F33" s="42" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5080,7 +5128,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5103,118 +5151,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>260</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>264</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>281</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>243</v>
       </c>
       <c r="C5" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>268</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>272</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>226</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5225,13 +5273,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>221</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5242,13 +5290,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>275</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5259,217 +5307,217 @@
         <v>214</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>215</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>217</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>279</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E613213B-C144-4483-A918-893F29FE5E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C7B46-71DE-4B3A-A050-20B1B109BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2454,7 +2454,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C7B46-71DE-4B3A-A050-20B1B109BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBDD983-AD25-4605-B0A6-201C3706CB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -2453,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2607,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBDD983-AD25-4605-B0A6-201C3706CB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BAC88D-04B9-4209-9F11-3F4ED38BF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="366">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1421,6 +1421,64 @@
   </si>
   <si>
     <t>해당 문구가 있으면 그 문구를 쭈구리로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비유</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Caret (캐럿)</t>
+  </si>
+  <si>
+    <t>문장의 시작점</t>
+  </si>
+  <si>
+    <t>달리기 출발선 ("여기서부터!")</t>
+  </si>
+  <si>
+    <t>Dot (점)</t>
+  </si>
+  <si>
+    <t>아무 글자 1개</t>
+  </si>
+  <si>
+    <t>조커 카드 (숫자든, 한글이든, 공백이든 뭐든 됨)</t>
+  </si>
+  <si>
+    <t>Asterisk (별)</t>
+  </si>
+  <si>
+    <t>앞의 것이 0개 이상 계속</t>
+  </si>
+  <si>
+    <t>"쭈우우욱~" (무한 반복)</t>
+  </si>
+  <si>
+    <t>캐럿 (Caret)</t>
+  </si>
+  <si>
+    <t>문장의 시작</t>
+  </si>
+  <si>
+    <t>"자, 여기서부터!" (Start)</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>달러 (Dollar)</t>
+  </si>
+  <si>
+    <t>문장의 끝</t>
+  </si>
+  <si>
+    <t>"여기까지 끝!" (End)</t>
+  </si>
+  <si>
+    <t>보내는분주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2607,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3288,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DE479-D69F-48E8-BF90-B067D08C8E1C}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4862,7 +4920,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5125,10 +5183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52549504-4590-40BA-B8EA-337736F4028C}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5518,6 +5576,104 @@
       </c>
       <c r="D37" s="2" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BAC88D-04B9-4209-9F11-3F4ED38BF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C5D27-A7E1-435B-B858-46D7048DF399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="368">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1479,6 +1479,14 @@
   </si>
   <si>
     <t>보내는분주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문구가 있으면 전체를 (선물포장 추가)로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*선물포장 추가.*$ /// (선물포장 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2512,7 +2520,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2811,13 +2819,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2828,16 +2836,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>226</v>
+        <v>243</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2848,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>253</v>
@@ -2865,19 +2873,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>208</v>
+        <v>226</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2885,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>171</v>
@@ -2896,8 +2904,8 @@
       <c r="E11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>248</v>
+      <c r="F11" s="59" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2908,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>171</v>
@@ -2928,7 +2936,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>171</v>
@@ -2948,16 +2956,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>337</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2968,16 +2976,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2988,15 +2996,17 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
@@ -3006,17 +3016,15 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>230</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
@@ -3032,10 +3040,10 @@
         <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3052,10 +3060,10 @@
         <v>172</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3072,10 +3080,10 @@
         <v>172</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3089,13 +3097,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3112,10 +3120,10 @@
         <v>173</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3132,10 +3140,10 @@
         <v>173</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3152,10 +3160,10 @@
         <v>173</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3172,30 +3180,30 @@
         <v>173</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="42">
         <v>28</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>124</v>
+      <c r="B26" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.45">
@@ -3203,19 +3211,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.45">
@@ -3223,19 +3231,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.45">
@@ -3249,32 +3257,32 @@
         <v>204</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:6">
+        <v>215</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.45">
       <c r="A30" s="42">
         <v>32</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>7</v>
+      <c r="B30" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>223</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="42">
@@ -3284,16 +3292,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>217</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3304,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>217</v>
@@ -3324,15 +3332,35 @@
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="42">
+        <v>36</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="C34" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E34" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F34" s="42" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3346,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DE479-D69F-48E8-BF90-B067D08C8E1C}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C5D27-A7E1-435B-B858-46D7048DF399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1290BC4-49EB-4108-9BF0-98CD732C77AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,6 +1179,88 @@
   </si>
   <si>
     <t>일반식혜, 호박식혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPLACE_REGEX_SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라벨 /// 쭈구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문구가 있으면 그 문구를 쭈구리로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비유</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Caret (캐럿)</t>
+  </si>
+  <si>
+    <t>문장의 시작점</t>
+  </si>
+  <si>
+    <t>달리기 출발선 ("여기서부터!")</t>
+  </si>
+  <si>
+    <t>Dot (점)</t>
+  </si>
+  <si>
+    <t>아무 글자 1개</t>
+  </si>
+  <si>
+    <t>조커 카드 (숫자든, 한글이든, 공백이든 뭐든 됨)</t>
+  </si>
+  <si>
+    <t>Asterisk (별)</t>
+  </si>
+  <si>
+    <t>앞의 것이 0개 이상 계속</t>
+  </si>
+  <si>
+    <t>"쭈우우욱~" (무한 반복)</t>
+  </si>
+  <si>
+    <t>캐럿 (Caret)</t>
+  </si>
+  <si>
+    <t>문장의 시작</t>
+  </si>
+  <si>
+    <t>"자, 여기서부터!" (Start)</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>달러 (Dollar)</t>
+  </si>
+  <si>
+    <t>문장의 끝</t>
+  </si>
+  <si>
+    <t>"여기까지 끝!" (End)</t>
+  </si>
+  <si>
+    <t>보내는분주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문구가 있으면 전체를 (선물포장 추가)로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*선물포장 추가.*$ /// (선물포장 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1403,90 +1485,17 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: , 수제식혜 선택: </t>
+      <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: , 수제식혜 선택: , </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^.*문어 자숙으로 발송.*$ /// (자숙)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPLACE_REGEX_SUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무라벨 /// 쭈구리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 문구가 있으면 그 문구를 쭈구리로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비유</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>Caret (캐럿)</t>
-  </si>
-  <si>
-    <t>문장의 시작점</t>
-  </si>
-  <si>
-    <t>달리기 출발선 ("여기서부터!")</t>
-  </si>
-  <si>
-    <t>Dot (점)</t>
-  </si>
-  <si>
-    <t>아무 글자 1개</t>
-  </si>
-  <si>
-    <t>조커 카드 (숫자든, 한글이든, 공백이든 뭐든 됨)</t>
-  </si>
-  <si>
-    <t>Asterisk (별)</t>
-  </si>
-  <si>
-    <t>앞의 것이 0개 이상 계속</t>
-  </si>
-  <si>
-    <t>"쭈우우욱~" (무한 반복)</t>
-  </si>
-  <si>
-    <t>캐럿 (Caret)</t>
-  </si>
-  <si>
-    <t>문장의 시작</t>
-  </si>
-  <si>
-    <t>"자, 여기서부터!" (Start)</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>달러 (Dollar)</t>
-  </si>
-  <si>
-    <t>문장의 끝</t>
-  </si>
-  <si>
-    <t>"여기까지 끝!" (End)</t>
-  </si>
-  <si>
-    <t>보내는분주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 문구가 있으면 전체를 (선물포장 추가)로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^.*선물포장 추가.*$ /// (선물포장 추가)</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🎁</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2674,7 +2683,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2742,7 +2751,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2799,10 +2808,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>244</v>
@@ -2819,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2842,10 +2851,10 @@
         <v>243</v>
       </c>
       <c r="E8" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>345</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4948,7 +4957,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5213,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52549504-4590-40BA-B8EA-337736F4028C}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5617,21 +5626,21 @@
         <v>293</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5639,13 +5648,13 @@
         <v>299</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5653,13 +5662,13 @@
         <v>316</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5673,35 +5682,35 @@
         <v>293</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1290BC4-49EB-4108-9BF0-98CD732C77AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3604D-771F-4958-AE53-56A794B26212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1257,10 +1257,6 @@
   </si>
   <si>
     <t>해당 문구가 있으면 전체를 (선물포장 추가)로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^.*선물포장 추가.*$ /// (선물포장 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1496,6 +1492,10 @@
       </rPr>
       <t>🎁</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*선물포장.*$ /// (선물포장 추가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2683,7 +2683,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2751,7 +2751,7 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
@@ -2831,7 +2831,7 @@
         <v>343</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>365</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3604D-771F-4958-AE53-56A794B26212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8E860-31E2-410A-8D86-A0D3113A0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="369">
   <si>
     <t>보내는사람</t>
   </si>
@@ -731,10 +731,6 @@
     <t>processed_option</t>
   </si>
   <si>
-    <t>생물 오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무게(g)부터 뒤에 있는 글자 지우기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,10 +810,6 @@
     <t>팩</t>
   </si>
   <si>
-    <t>\s*\d+g.*, **\d+g-\d+kg내외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"10마리"가 있으면 수량 곱해서 "20마리"로 변경</t>
   </si>
   <si>
@@ -963,9 +955,6 @@
     <t>(없음)</t>
   </si>
   <si>
-    <t>APPEND_QTY_UNIT</t>
-  </si>
-  <si>
     <t>단순 문구 뒤에 추가</t>
   </si>
   <si>
@@ -1011,9 +1000,6 @@
     <t>(소스/반찬) 단어가 있으면 '이름 x수량' 붙임</t>
   </si>
   <si>
-    <t>추가 소스 → 추가 소스 소스 x3</t>
-  </si>
-  <si>
     <t>문어 → 문어 (냉동)</t>
   </si>
   <si>
@@ -1198,9 +1184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비유</t>
-  </si>
-  <si>
     <t>^</t>
   </si>
   <si>
@@ -1229,15 +1212,6 @@
   </si>
   <si>
     <t>"쭈우우욱~" (무한 반복)</t>
-  </si>
-  <si>
-    <t>캐럿 (Caret)</t>
-  </si>
-  <si>
-    <t>문장의 시작</t>
-  </si>
-  <si>
-    <t>"자, 여기서부터!" (Start)</t>
   </si>
   <si>
     <t>$</t>
@@ -1496,6 +1470,42 @@
   </si>
   <si>
     <t>^.*선물포장.*$ /// (선물포장 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 소스 → 추가 소스 x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+g.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\d+g-\d+kg내외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+kg.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백이 있든 없든 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*호래기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,10 +2536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DCD00-F549-4147-9EE9-0753C5772E23}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2567,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2578,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2622,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>114</v>
@@ -2644,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2680,10 +2691,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
-  <dimension ref="A1:F34"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2697,7 +2709,7 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="42">
         <v>2</v>
       </c>
@@ -2751,13 +2763,13 @@
         <v>169</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="42">
         <v>4</v>
       </c>
@@ -2765,39 +2777,42 @@
         <v>7</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="42">
         <v>5</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>206</v>
+      <c r="E5" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="42">
         <v>6</v>
       </c>
@@ -2805,39 +2820,39 @@
         <v>7</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>342</v>
+        <v>166</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>361</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="42">
         <v>7</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="42">
         <v>8</v>
       </c>
@@ -2848,16 +2863,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="42">
         <v>9</v>
       </c>
@@ -2865,19 +2880,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>226</v>
+        <v>339</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="42">
         <v>10</v>
       </c>
@@ -2885,39 +2900,39 @@
         <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>226</v>
+        <v>241</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>340</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="42">
         <v>11</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>225</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="42">
         <v>12</v>
       </c>
@@ -2925,24 +2940,24 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="42">
         <v>13</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>204</v>
@@ -2953,11 +2968,11 @@
       <c r="E13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="42">
         <v>14</v>
       </c>
@@ -2965,7 +2980,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>171</v>
@@ -2974,10 +2989,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="42">
         <v>15</v>
       </c>
@@ -2985,19 +3000,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>336</v>
+        <v>203</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="42">
         <v>16</v>
       </c>
@@ -3005,16 +3020,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3025,15 +3040,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" s="42"/>
+        <v>219</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
@@ -3049,10 +3066,10 @@
         <v>172</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3063,17 +3080,15 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>232</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
@@ -3089,10 +3104,10 @@
         <v>172</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3109,10 +3124,10 @@
         <v>172</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3126,13 +3141,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3146,13 +3161,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3169,10 +3184,10 @@
         <v>173</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3189,10 +3204,10 @@
         <v>173</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3209,50 +3224,50 @@
         <v>173</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="42">
         <v>29</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>124</v>
+      <c r="B27" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="42">
         <v>30</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>93</v>
+      <c r="B28" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.45">
@@ -3263,16 +3278,16 @@
         <v>124</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.45">
@@ -3280,58 +3295,58 @@
         <v>32</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.45">
       <c r="A31" s="42">
         <v>33</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>7</v>
+      <c r="B31" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.45">
       <c r="A32" s="42">
         <v>34</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>7</v>
+      <c r="B32" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>219</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="42">
@@ -3341,16 +3356,16 @@
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3361,16 +3376,56 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="42">
+        <v>37</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="C35" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="42">
+        <v>38</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E36" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="42" t="s">
         <v>224</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3381,10 +3436,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DE479-D69F-48E8-BF90-B067D08C8E1C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4957,7 +5013,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5220,10 +5276,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52549504-4590-40BA-B8EA-337736F4028C}">
-  <dimension ref="A1:E47"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5231,7 +5288,7 @@
     <col min="1" max="1" width="6.92578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.35546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.35546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -5246,118 +5303,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>267</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5368,13 +5425,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>288</v>
+        <v>220</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5385,13 +5442,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5399,318 +5456,264 @@
         <v>175</v>
       </c>
       <c r="B11" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>215</v>
-      </c>
       <c r="E11" s="60" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E12" s="60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="60" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B17" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="D17" s="60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="60"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="60" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C22" s="60" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="D22" s="60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="60" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>294</v>
+      <c r="B23" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>322</v>
+      <c r="B24" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>323</v>
+      <c r="A25" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>324</v>
+      <c r="A26" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>325</v>
+      <c r="A29" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>363</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5721,6 +5724,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D10536A-E0E0-49D9-841E-65214E1C7FD4}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8E860-31E2-410A-8D86-A0D3113A0CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D03D4-0144-4155-96BF-A4F7296049CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="369">
   <si>
     <t>보내는사람</t>
   </si>
@@ -2692,10 +2692,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2957,30 +2957,28 @@
         <v>13</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>207</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="42">
         <v>14</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>171</v>
@@ -2988,8 +2986,8 @@
       <c r="E14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>246</v>
+      <c r="F14" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3000,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>171</v>
@@ -3020,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>171</v>
@@ -3040,16 +3038,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>333</v>
+        <v>9</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3060,16 +3058,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3080,15 +3078,17 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="F19" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
@@ -3098,17 +3098,15 @@
         <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>228</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
@@ -3124,10 +3122,10 @@
         <v>172</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3144,10 +3142,10 @@
         <v>172</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3164,10 +3162,10 @@
         <v>172</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3181,13 +3179,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3204,10 +3202,10 @@
         <v>173</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3224,10 +3222,10 @@
         <v>173</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3244,10 +3242,10 @@
         <v>173</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3264,30 +3262,30 @@
         <v>173</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="42">
         <v>31</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>124</v>
+      <c r="B29" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.45">
@@ -3295,19 +3293,19 @@
         <v>32</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E30" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.45">
@@ -3315,19 +3313,19 @@
         <v>33</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.45">
@@ -3341,32 +3339,32 @@
         <v>203</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="42"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>214</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.45">
       <c r="A33" s="42">
         <v>35</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>7</v>
+      <c r="B33" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>222</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="42">
@@ -3376,16 +3374,16 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3396,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>216</v>
@@ -3416,15 +3414,35 @@
         <v>7</v>
       </c>
       <c r="C36" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="42">
+        <v>39</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="C37" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E37" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F37" s="42" t="s">
         <v>224</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D03D4-0144-4155-96BF-A4F7296049CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167159A-B595-4490-AE1F-422E9F2E08E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2540,7 +2540,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2694,8 +2694,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>368</v>
@@ -2957,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>368</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9167159A-B595-4490-AE1F-422E9F2E08E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C80C5F5-7EA0-4BCD-8BB4-58FC9E06502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OptionRules!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OptionRules!$A$1:$F$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1231,6 +1231,46 @@
   </si>
   <si>
     <t>해당 문구가 있으면 전체를 (선물포장 추가)로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*선물포장.*$ /// (선물포장 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 소스 → 추가 소스 x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+g.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**\d+g-\d+kg내외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+kg.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공백이 있든 없든 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물\s*호래기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1466,46 +1506,17 @@
       </rPr>
       <t>🎁</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^.*선물포장.*$ /// (선물포장 추가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 소스 → 추가 소스 x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\d+g.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**\d+g-\d+kg내외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\d+kg.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공백이 있든 없든 인식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물\s*오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물\s*갑오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물\s*호래기</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 생물 갑오징어 /</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,7 +2551,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2695,7 +2706,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2737,16 +2748,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>167</v>
+        <v>251</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>225</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2757,76 +2768,74 @@
         <v>7</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>202</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>202</v>
@@ -2834,27 +2843,27 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>204</v>
+        <v>367</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>205</v>
+      <c r="E7" s="42" t="s">
+        <v>360</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>7</v>
@@ -2863,18 +2872,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>7</v>
@@ -2883,96 +2892,98 @@
         <v>7</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>359</v>
+        <v>169</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>368</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>357</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>341</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>225</v>
+        <v>339</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>338</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>252</v>
+        <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>225</v>
+        <v>339</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>358</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="42"/>
+        <v>241</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>192</v>
@@ -2992,7 +3003,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>7</v>
@@ -3012,7 +3023,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>7</v>
@@ -3032,7 +3043,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>7</v>
@@ -3052,7 +3063,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>7</v>
@@ -3072,7 +3083,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>7</v>
@@ -3092,7 +3103,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>7</v>
@@ -3110,7 +3121,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>7</v>
@@ -3130,7 +3141,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>7</v>
@@ -3150,7 +3161,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>7</v>
@@ -3170,7 +3181,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>7</v>
@@ -3190,7 +3201,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>7</v>
@@ -3210,7 +3221,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
@@ -3230,7 +3241,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>7</v>
@@ -3250,7 +3261,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>7</v>
@@ -3270,7 +3281,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>7</v>
@@ -3290,7 +3301,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.45">
       <c r="A30" s="42">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>124</v>
@@ -3310,7 +3321,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.45">
       <c r="A31" s="42">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="57" t="s">
         <v>93</v>
@@ -3330,7 +3341,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.45">
       <c r="A32" s="42">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>124</v>
@@ -3350,7 +3361,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.45">
       <c r="A33" s="42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>124</v>
@@ -3368,7 +3379,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="42">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="42" t="s">
         <v>7</v>
@@ -3388,7 +3399,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="42">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>7</v>
@@ -3408,7 +3419,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="42">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>7</v>
@@ -3428,7 +3439,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="42">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="42" t="s">
         <v>7</v>
@@ -5449,7 +5460,7 @@
         <v>220</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5547,7 +5558,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>306</v>
@@ -5556,7 +5567,7 @@
         <v>294</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C80C5F5-7EA0-4BCD-8BB4-58FC9E06502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984681AC-D0D2-4FB4-9C30-3E66B1BD0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2751,13 +2751,13 @@
         <v>365</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2768,16 +2768,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>225</v>
+        <v>362</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2791,12 +2791,14 @@
         <v>367</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="42"/>
+        <v>360</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="42">
@@ -2809,13 +2811,13 @@
         <v>365</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>361</v>
@@ -2829,16 +2831,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2852,14 +2854,12 @@
         <v>367</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>202</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="42">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984681AC-D0D2-4FB4-9C30-3E66B1BD0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A209ADA-896E-486B-B070-CC9F69A0E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,15 +1242,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\s*\d+g.*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**\d+g-\d+kg내외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\d+kg.*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1517,6 +1509,14 @@
       </rPr>
       <t>, 생물 갑오징어 /</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+g.*$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+kg.*$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2748,13 +2748,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
@@ -2768,13 +2768,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2788,13 +2788,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>251</v>
@@ -2820,7 +2820,7 @@
         <v>238</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2851,7 +2851,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>251</v>
@@ -2895,7 +2895,7 @@
         <v>169</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>170</v>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>306</v>
@@ -5567,7 +5567,7 @@
         <v>294</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A209ADA-896E-486B-B070-CC9F69A0E396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26B4D1-7738-4E82-BB25-ED73608CBEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3468,8 +3468,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5060,7 +5060,7 @@
         <v>153</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="54" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26B4D1-7738-4E82-BB25-ED73608CBEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE3AAD1-E302-4D6C-8DA8-0F73930CD25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OptionRules!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OptionRules!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="369">
   <si>
     <t>보내는사람</t>
   </si>
@@ -825,9 +825,6 @@
     <t>"2병"이 있으면 수량 곱해서 "4병"으로 변경</t>
   </si>
   <si>
-    <t>"1팩"이 있으면 수량 곱해서 "3팩"으로 변경</t>
-  </si>
-  <si>
     <t>명란</t>
   </si>
   <si>
@@ -1136,14 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"무침" 글자가 보이면 뒤에 "x{qty}" 붙임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>골뱅이무침 만능소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,10 +1231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**\d+g-\d+kg내외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\s*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,20 +1239,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생물\s*오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물\s*갑오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물\s*호래기</t>
+    <t>\s*\d+g.*$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\d+kg.*$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processed_option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물 호래기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물 오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물 갑오징어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 반건조생선 선택: , 올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, </t>
+      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 제철회 추가: ,반건조생선 선택: , 올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, </t>
     </r>
     <r>
       <rPr>
@@ -1327,7 +1324,67 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 참가리비: , 수령일 선택 (도착시간 지정불가): , </t>
+      <t xml:space="preserve">, ♡함께즐기는 추가상품: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , 함께즐기는 추가상품: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🥇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , ♡함께즐기는 추가상품: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , 참가리비: , 수령일 선택 (도착시간 지정불가): , </t>
     </r>
     <r>
       <rPr>
@@ -1407,7 +1464,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">함께 즐기는 동해안 골뱅이: , 초코오징어 선택: , 한정수량 생물오징어 /, 마릿수 선택: , 제철 생물 호래기 / , A급 온다리, (생물), 추가, (손질후 600g내외), (초벌후 480g내외), 소스 추가: , 초생강 추가: , 장어 선택: , </t>
+      <t xml:space="preserve">함께 즐기는 동해안 골뱅이: , 초코오징어 선택: , 한정수량 생물오징어 /, 마릿수 선택: , 제철 생물 호래기 / , A급 온다리, (생물), (손질후 600g내외), (초벌후 480g내외), 소스 추가: , 초생강 추가: , 장어 선택: , </t>
     </r>
     <r>
       <rPr>
@@ -1507,16 +1564,20 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 생물 갑오징어 /</t>
+      <t>, 생물 갑오징어 /, 추가</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\s*\d+g.*$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\d+kg.*$</t>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2개" 있으면 수량 곱해서 "4개"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태회무침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,7 +2612,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2589,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2600,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2644,7 +2705,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>114</v>
@@ -2666,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2703,10 +2764,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2720,7 +2781,7 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
@@ -2740,32 +2801,32 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>364</v>
@@ -2774,13 +2835,13 @@
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="42">
         <v>3</v>
       </c>
@@ -2788,62 +2849,57 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>363</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>225</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="42">
         <v>6</v>
       </c>
@@ -2851,37 +2907,35 @@
         <v>196</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>225</v>
       </c>
       <c r="F7" s="42"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="42">
         <v>7</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>7</v>
+        <v>364</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="42">
         <v>8</v>
       </c>
@@ -2892,56 +2946,56 @@
         <v>7</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>366</v>
+        <v>166</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="42">
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>205</v>
+        <v>169</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>365</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="42">
         <v>10</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>339</v>
+        <v>166</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="42">
         <v>11</v>
       </c>
@@ -2952,16 +3006,16 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="42">
         <v>12</v>
       </c>
@@ -2972,44 +3026,44 @@
         <v>7</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="42">
         <v>14</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>171</v>
@@ -3017,11 +3071,11 @@
       <c r="E15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="42">
         <v>15</v>
       </c>
@@ -3029,7 +3083,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>171</v>
@@ -3038,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3049,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>171</v>
@@ -3058,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3069,16 +3123,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>333</v>
+        <v>9</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3089,59 +3143,59 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>334</v>
+        <v>7</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>228</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>7</v>
@@ -3153,15 +3207,15 @@
         <v>172</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>7</v>
@@ -3173,15 +3227,15 @@
         <v>172</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>7</v>
@@ -3193,15 +3247,15 @@
         <v>172</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>7</v>
@@ -3210,18 +3264,18 @@
         <v>7</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>233</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
@@ -3233,15 +3287,15 @@
         <v>173</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>7</v>
@@ -3253,15 +3307,15 @@
         <v>173</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>7</v>
@@ -3273,15 +3327,15 @@
         <v>173</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>7</v>
@@ -3293,75 +3347,73 @@
         <v>173</v>
       </c>
       <c r="E29" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.45">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="42">
-        <v>29</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>124</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>203</v>
+        <v>368</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>209</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" ht="15.45">
       <c r="A31" s="42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E31" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.45">
       <c r="A32" s="42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.45">
       <c r="A33" s="42">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>124</v>
@@ -3370,62 +3422,62 @@
         <v>203</v>
       </c>
       <c r="D33" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.45">
+      <c r="A34" s="42">
+        <v>34</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="42">
-        <v>33</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>222</v>
-      </c>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>216</v>
@@ -3439,21 +3491,41 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="42">
+        <v>38</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="C38" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E38" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F38" s="42" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3468,8 +3540,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3753,7 +3825,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -5042,7 +5114,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5309,7 +5381,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5332,118 +5404,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>257</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>261</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>277</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>265</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>269</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>225</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5454,13 +5526,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>220</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5471,13 +5543,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>271</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5488,261 +5560,261 @@
         <v>213</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>214</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>275</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>288</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>289</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="D16" s="60" t="s">
         <v>304</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="D17" s="60" t="s">
         <v>306</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="C19" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>297</v>
-      </c>
       <c r="D19" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="60" t="s">
         <v>299</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>300</v>
       </c>
       <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="C21" s="60" t="s">
         <v>302</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>303</v>
       </c>
       <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>311</v>
-      </c>
       <c r="D22" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>314</v>
-      </c>
       <c r="D23" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>317</v>
-      </c>
       <c r="D24" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="D25" s="60" t="s">
         <v>327</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>342</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="60" t="s">
         <v>352</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE3AAD1-E302-4D6C-8DA8-0F73930CD25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592208F-ECAB-4858-B5A0-DDB3C2EAE49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="370">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1240,10 +1240,6 @@
   </si>
   <si>
     <t>\s*\d+g.*$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\d+kg.*$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1578,6 +1574,14 @@
   </si>
   <si>
     <t>명태회무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물 갑오징어 특대 ///탱글 특대 갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\(.*$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2764,10 +2768,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2829,13 +2833,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2849,13 +2853,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2869,7 +2873,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>250</v>
@@ -2901,63 +2905,67 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="42"/>
+        <v>166</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="42">
+        <v>9</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>196</v>
-      </c>
       <c r="C8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="42" t="s">
         <v>7</v>
@@ -2966,38 +2974,38 @@
         <v>7</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>365</v>
+        <v>336</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>335</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>206</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>7</v>
@@ -3006,64 +3014,62 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>336</v>
+        <v>240</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>354</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>338</v>
+        <v>171</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="42">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>171</v>
@@ -3071,19 +3077,19 @@
       <c r="E15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>207</v>
+      <c r="F15" s="42" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>171</v>
@@ -3097,13 +3103,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>171</v>
@@ -3117,13 +3123,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>171</v>
@@ -3131,91 +3137,87 @@
       <c r="E18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>245</v>
-      </c>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>330</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>228</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>7</v>
@@ -3227,15 +3229,15 @@
         <v>172</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>7</v>
@@ -3247,15 +3249,15 @@
         <v>172</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>7</v>
@@ -3267,15 +3269,15 @@
         <v>172</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>366</v>
+        <v>248</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
@@ -3284,18 +3286,18 @@
         <v>7</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>7</v>
@@ -3307,15 +3309,15 @@
         <v>173</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>7</v>
@@ -3327,15 +3329,15 @@
         <v>173</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>7</v>
@@ -3347,93 +3349,93 @@
         <v>173</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.45">
+        <v>242</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="42">
-        <v>31</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>124</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>203</v>
+        <v>367</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>209</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" ht="15.45">
       <c r="A32" s="42">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E32" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.45">
       <c r="A33" s="42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.45">
       <c r="A34" s="42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>124</v>
@@ -3442,62 +3444,62 @@
         <v>203</v>
       </c>
       <c r="D34" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.45">
+      <c r="A35" s="42">
+        <v>36</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E35" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="42">
-        <v>35</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>222</v>
-      </c>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>216</v>
@@ -3511,21 +3513,41 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="42">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="42">
+        <v>40</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="C39" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E39" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F39" s="42" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3825,7 +3847,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -5380,7 +5402,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592208F-ECAB-4858-B5A0-DDB3C2EAE49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613775C6-2927-44BC-93E9-F9A9C69F1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="371">
   <si>
     <t>보내는사람</t>
   </si>
@@ -778,9 +778,6 @@
   </si>
   <si>
     <t>FORMAT_QTY</t>
-  </si>
-  <si>
-    <t>x{qty}개</t>
   </si>
   <si>
     <t>수량 표기를 'xN개' 방식으로 변경</t>
@@ -1582,6 +1579,14 @@
   </si>
   <si>
     <t>\s*\(.*$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명이나물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2616,7 +2621,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2654,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2665,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2709,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>114</v>
@@ -2731,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2768,10 +2773,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2813,13 +2818,13 @@
         <v>196</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
@@ -2833,13 +2838,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2853,13 +2858,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2873,16 +2878,16 @@
         <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2893,19 +2898,19 @@
         <v>196</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>7</v>
@@ -2925,7 +2930,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>7</v>
@@ -2937,7 +2942,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -2945,7 +2950,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>192</v>
@@ -2965,27 +2970,25 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>241</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>7</v>
@@ -2994,18 +2997,18 @@
         <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>354</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>7</v>
@@ -3014,62 +3017,62 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" s="42"/>
+        <v>336</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>207</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="42">
         <v>16</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>171</v>
@@ -3077,8 +3080,8 @@
       <c r="E15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>245</v>
+      <c r="F15" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3089,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>171</v>
@@ -3098,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3109,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>171</v>
@@ -3118,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3126,10 +3129,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>171</v>
@@ -3137,7 +3140,9 @@
       <c r="E18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="42" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42">
@@ -3147,7 +3152,7 @@
         <v>196</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>171</v>
@@ -3162,20 +3167,18 @@
         <v>21</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>330</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
@@ -3185,17 +3188,15 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>226</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
@@ -3205,15 +3206,17 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" s="42"/>
+        <v>218</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
@@ -3229,10 +3232,10 @@
         <v>172</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3243,17 +3246,15 @@
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>230</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
@@ -3269,10 +3270,10 @@
         <v>172</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3289,10 +3290,10 @@
         <v>172</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>366</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3306,13 +3307,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3326,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>234</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3349,10 +3350,10 @@
         <v>173</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3369,10 +3370,10 @@
         <v>173</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3383,55 +3384,55 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="F31" s="42"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.45">
+        <v>234</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="42">
         <v>33</v>
       </c>
-      <c r="B32" s="57" t="s">
-        <v>124</v>
+      <c r="B32" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="42">
         <v>34</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>93</v>
+      <c r="B33" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>212</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="15.45">
       <c r="A34" s="42">
@@ -3444,13 +3445,13 @@
         <v>203</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.45">
@@ -3458,58 +3459,58 @@
         <v>36</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.45">
       <c r="A36" s="42">
         <v>37</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>7</v>
+      <c r="B36" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.45">
       <c r="A37" s="42">
         <v>38</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>7</v>
+      <c r="B37" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>218</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="42">
@@ -3519,16 +3520,16 @@
         <v>7</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3539,16 +3540,56 @@
         <v>7</v>
       </c>
       <c r="C39" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="42">
+        <v>41</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="C40" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="42">
+        <v>42</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E41" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -5136,7 +5177,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5402,8 +5443,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5426,118 +5467,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>256</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>260</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>276</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>264</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>268</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>281</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5548,13 +5589,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5565,13 +5606,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>270</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5582,261 +5623,261 @@
         <v>213</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>214</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>274</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>287</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>288</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="D16" s="60" t="s">
         <v>303</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="D17" s="60" t="s">
         <v>305</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>357</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="C19" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>296</v>
-      </c>
       <c r="D19" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>299</v>
       </c>
       <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="C21" s="60" t="s">
         <v>301</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>302</v>
       </c>
       <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>310</v>
-      </c>
       <c r="D22" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>313</v>
-      </c>
       <c r="D23" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>316</v>
-      </c>
       <c r="D24" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="D25" s="60" t="s">
         <v>326</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="C26" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="D26" s="60" t="s">
         <v>341</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="D27" s="60" t="s">
         <v>344</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="D28" s="60" t="s">
         <v>347</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="D29" s="60" t="s">
         <v>351</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613775C6-2927-44BC-93E9-F9A9C69F1ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED474B9-54E2-49C3-88F0-63252C1AB318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="372">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1587,6 +1587,10 @@
   </si>
   <si>
     <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2775,8 +2779,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3603,8 +3607,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4216,7 +4220,9 @@
       <c r="C35" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
     </row>
@@ -4248,7 +4254,9 @@
       <c r="C37" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
     </row>
@@ -4262,7 +4270,9 @@
       <c r="C38" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
     </row>
@@ -4276,7 +4286,9 @@
       <c r="C39" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
     </row>
@@ -4308,7 +4320,9 @@
       <c r="C41" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
     </row>
@@ -4340,7 +4354,9 @@
       <c r="C43" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
     </row>
@@ -4354,7 +4370,9 @@
       <c r="C44" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
     </row>
@@ -4368,7 +4386,9 @@
       <c r="C45" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
     </row>
@@ -4382,7 +4402,9 @@
       <c r="C46" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
     </row>
@@ -4396,7 +4418,9 @@
       <c r="C47" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
     </row>
@@ -4410,7 +4434,9 @@
       <c r="C48" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
     </row>
@@ -4424,7 +4450,9 @@
       <c r="C49" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
     </row>
@@ -4686,7 +4714,9 @@
       <c r="C64" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="40"/>
+      <c r="D64" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
     </row>
@@ -4736,7 +4766,9 @@
       <c r="C67" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
     </row>
@@ -4750,7 +4782,9 @@
       <c r="C68" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="26"/>
+      <c r="D68" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
     </row>
@@ -4764,7 +4798,9 @@
       <c r="C69" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="40"/>
+      <c r="D69" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
     </row>
@@ -4778,7 +4814,9 @@
       <c r="C70" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
     </row>
@@ -5060,7 +5098,9 @@
       <c r="C86" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D86" s="28"/>
+      <c r="D86" s="26" t="s">
+        <v>371</v>
+      </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED474B9-54E2-49C3-88F0-63252C1AB318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735E509C-0024-49B6-AF5E-91F5DA92DB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="373">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1591,6 +1591,10 @@
   </si>
   <si>
     <t>공란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰번호(공란)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3607,8 +3611,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5253,7 +5257,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735E509C-0024-49B6-AF5E-91F5DA92DB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF77D6D-CB76-4F08-84BB-3A6B50519F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="374">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1256,8 +1256,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2개" 있으면 수량 곱해서 "4개"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태회무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생물 갑오징어 특대 ///탱글 특대 갑오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s*\(.*$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명이나물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰번호(공란)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 제철회 추가: ,반건조생선 선택: , 올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, </t>
+      <t xml:space="preserve">특가, 반건조우럭 사이즈 : , 제철회 선택: , 제철회 추가: ,올리브오일 선택: , 속초 깔끔코다리 선택: , 순대 선택:, 상품 선택:, 중량:, 추가상품:, </t>
     </r>
     <r>
       <rPr>
@@ -1562,39 +1598,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2개" 있으면 수량 곱해서 "4개"으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명태회무침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생물 갑오징어 특대 ///탱글 특대 갑오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s*\(.*$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명이나물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰번호(공란)</t>
+    <t>반건조생선.*\/ ///</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2781,10 +2785,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2852,7 +2856,7 @@
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2872,7 +2876,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2950,7 +2954,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -2981,10 +2985,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
@@ -3056,7 +3060,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>196</v>
@@ -3068,39 +3072,37 @@
         <v>239</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>207</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>171</v>
@@ -3108,19 +3110,19 @@
       <c r="E16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>244</v>
+      <c r="F16" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>171</v>
@@ -3134,13 +3136,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>171</v>
@@ -3154,13 +3156,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>171</v>
@@ -3168,17 +3170,19 @@
       <c r="E19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="42" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>196</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>171</v>
@@ -3190,103 +3194,101 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>216</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>329</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="F24" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>227</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>7</v>
@@ -3298,15 +3300,15 @@
         <v>172</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>7</v>
@@ -3318,15 +3320,15 @@
         <v>172</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>7</v>
@@ -3338,15 +3340,15 @@
         <v>172</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>364</v>
+        <v>247</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="42">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>7</v>
@@ -3355,18 +3357,18 @@
         <v>7</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>231</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>7</v>
@@ -3378,15 +3380,15 @@
         <v>173</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>7</v>
@@ -3398,15 +3400,15 @@
         <v>173</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>7</v>
@@ -3418,93 +3420,93 @@
         <v>173</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.45">
+        <v>241</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="42">
-        <v>35</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>124</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>209</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" ht="15.45">
       <c r="A35" s="42">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.45">
       <c r="A36" s="42">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.45">
       <c r="A37" s="42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="57" t="s">
         <v>124</v>
@@ -3513,42 +3515,42 @@
         <v>203</v>
       </c>
       <c r="D37" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.45">
+      <c r="A38" s="42">
+        <v>37</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E38" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="42">
-        <v>39</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>221</v>
-      </c>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="42">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>216</v>
@@ -3557,18 +3559,18 @@
         <v>331</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>216</v>
@@ -3582,21 +3584,41 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="C42" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E42" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F42" s="42" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3611,8 +3633,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4225,7 +4247,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4259,7 +4281,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4275,7 +4297,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4291,7 +4313,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4325,7 +4347,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4359,7 +4381,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4375,7 +4397,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4391,7 +4413,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4407,7 +4429,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4423,7 +4445,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4439,7 +4461,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4455,7 +4477,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -4719,7 +4741,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4771,7 +4793,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4787,7 +4809,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -4803,7 +4825,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -4819,7 +4841,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5103,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5257,7 +5279,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>
@@ -5487,8 +5509,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF77D6D-CB76-4F08-84BB-3A6B50519F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC49481-6624-4AA9-A52B-6F32E0594DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="373">
   <si>
     <t>보내는사람</t>
   </si>
@@ -774,9 +774,6 @@
     <t>★</t>
   </si>
   <si>
-    <t>(NEW) 맨 앞에 별표 붙이기</t>
-  </si>
-  <si>
     <t>FORMAT_QTY</t>
   </si>
   <si>
@@ -1289,6 +1286,10 @@
   </si>
   <si>
     <t>핸드폰번호(공란)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반건조생선.*\/ ///</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1593,12 +1594,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 생물 갑오징어 /, 추가</t>
+      <t>, 생물 갑오징어 /, 추가, SET</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반건조생선.*\/ ///</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2632,7 +2629,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2671,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2682,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2726,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>114</v>
@@ -2748,7 +2745,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2785,10 +2782,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2830,13 +2827,13 @@
         <v>196</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
@@ -2850,13 +2847,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2870,13 +2867,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2890,16 +2887,16 @@
         <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2910,13 +2907,13 @@
         <v>196</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F6" s="42"/>
     </row>
@@ -2985,16 +2982,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F10" s="42"/>
     </row>
@@ -3009,13 +3006,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3029,13 +3026,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3049,13 +3046,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>336</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3066,13 +3063,13 @@
         <v>196</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3087,10 +3084,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F15" s="42"/>
     </row>
@@ -3122,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>171</v>
@@ -3131,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3151,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3162,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>171</v>
@@ -3171,7 +3168,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3182,7 +3179,7 @@
         <v>196</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>171</v>
@@ -3200,7 +3197,7 @@
         <v>196</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3218,13 +3215,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="42"/>
     </row>
@@ -3236,16 +3233,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>328</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3265,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3276,13 +3273,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>330</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>331</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -3300,10 +3297,10 @@
         <v>172</v>
       </c>
       <c r="E26" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="42" t="s">
         <v>226</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3320,10 +3317,10 @@
         <v>172</v>
       </c>
       <c r="E27" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="42" t="s">
         <v>228</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3340,10 +3337,10 @@
         <v>172</v>
       </c>
       <c r="E28" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="42" t="s">
         <v>247</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3360,10 +3357,10 @@
         <v>172</v>
       </c>
       <c r="E29" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="F29" s="42" t="s">
         <v>363</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3380,10 +3377,10 @@
         <v>173</v>
       </c>
       <c r="E30" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3400,10 +3397,10 @@
         <v>173</v>
       </c>
       <c r="E31" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="42" t="s">
         <v>232</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3420,10 +3417,10 @@
         <v>173</v>
       </c>
       <c r="E32" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="42" t="s">
         <v>234</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3440,10 +3437,10 @@
         <v>173</v>
       </c>
       <c r="E33" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3454,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F34" s="42"/>
     </row>
@@ -3515,32 +3512,32 @@
         <v>203</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.45">
+        <v>237</v>
+      </c>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="42">
         <v>37</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>124</v>
+      <c r="B38" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" s="42"/>
+        <v>330</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="42">
@@ -3550,16 +3547,16 @@
         <v>7</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D39" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F39" s="42" t="s">
         <v>216</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3570,16 +3567,16 @@
         <v>7</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D40" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F40" s="42" t="s">
         <v>216</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3590,36 +3587,16 @@
         <v>7</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3633,8 +3610,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3918,7 +3895,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -4247,7 +4224,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4281,7 +4258,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4297,7 +4274,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4313,7 +4290,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4347,7 +4324,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4381,7 +4358,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4397,7 +4374,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4413,7 +4390,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4429,7 +4406,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4445,7 +4422,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4461,7 +4438,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4477,7 +4454,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -4741,7 +4718,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4793,7 +4770,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4809,7 +4786,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -4825,7 +4802,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -4841,7 +4818,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5125,7 +5102,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5243,7 +5220,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5279,7 +5256,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>
@@ -5533,118 +5510,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>255</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>259</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>275</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>263</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>267</v>
-      </c>
       <c r="E7" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>280</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5655,13 +5632,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5672,13 +5649,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>269</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5689,261 +5666,261 @@
         <v>213</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>214</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="60" t="s">
+      <c r="D12" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>273</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="D16" s="60" t="s">
         <v>302</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="D17" s="60" t="s">
         <v>304</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>356</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="C19" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>295</v>
-      </c>
       <c r="D19" s="60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="C20" s="60" t="s">
         <v>297</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>298</v>
       </c>
       <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="C21" s="60" t="s">
         <v>300</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>301</v>
       </c>
       <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="C22" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>309</v>
-      </c>
       <c r="D22" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="C23" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>312</v>
-      </c>
       <c r="D23" s="60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="C24" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="C24" s="60" t="s">
-        <v>315</v>
-      </c>
       <c r="D24" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="D25" s="60" t="s">
         <v>325</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="C26" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="D26" s="60" t="s">
         <v>340</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="D27" s="60" t="s">
         <v>343</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="D28" s="60" t="s">
         <v>346</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="D29" s="60" t="s">
         <v>350</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC49481-6624-4AA9-A52B-6F32E0594DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2199E68-C488-415C-8570-1CD007A8B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductRoute" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="375">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1554,27 +1554,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 제철, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>⭐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">선동 초코오징어 /, ★, 사이즈: , 수제식혜 선택: , </t>
+      <t xml:space="preserve">, 제철, 선동 초코오징어 /, ★, 사이즈: , 수제식혜 선택: , </t>
     </r>
     <r>
       <rPr>
@@ -1594,8 +1574,16 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 생물 갑오징어 /, 추가, SET</t>
+      <t>, 생물 갑오징어 /, 추가, SET, 냉동 오징어 / ,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통다리모듬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2629,8 +2617,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2782,10 +2770,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3043,33 +3031,31 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>336</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>365</v>
+        <v>215</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>330</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3087,29 +3073,29 @@
         <v>238</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="F15" s="42"/>
+        <v>335</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>207</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
@@ -3119,27 +3105,25 @@
         <v>7</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="42">
         <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>171</v>
@@ -3147,8 +3131,8 @@
       <c r="E18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>243</v>
+      <c r="F18" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3159,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>171</v>
@@ -3176,10 +3160,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>171</v>
@@ -3187,17 +3171,19 @@
       <c r="E20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="42">
         <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3205,23 +3191,25 @@
       <c r="E21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="42" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="42">
         <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="F22" s="42"/>
     </row>
@@ -3230,20 +3218,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
@@ -3253,17 +3239,15 @@
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>224</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
@@ -3273,15 +3257,17 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F25" s="42"/>
+        <v>217</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
@@ -3297,10 +3283,10 @@
         <v>172</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3311,17 +3297,15 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>228</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="42">
@@ -3337,10 +3321,10 @@
         <v>172</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3357,10 +3341,10 @@
         <v>172</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>363</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3374,13 +3358,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3394,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3417,10 +3401,10 @@
         <v>173</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3437,10 +3421,10 @@
         <v>173</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3451,55 +3435,55 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.45">
+        <v>233</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="42">
         <v>34</v>
       </c>
-      <c r="B35" s="57" t="s">
-        <v>124</v>
+      <c r="B35" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="42">
         <v>35</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>93</v>
+      <c r="B36" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>210</v>
+        <v>364</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>212</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" ht="15.45">
       <c r="A37" s="42">
@@ -3512,52 +3496,52 @@
         <v>203</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.45">
       <c r="A38" s="42">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>7</v>
+      <c r="B38" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.45">
       <c r="A39" s="42">
         <v>38</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>7</v>
+      <c r="B39" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>216</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="42">
@@ -3567,7 +3551,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>215</v>
@@ -3576,7 +3560,7 @@
         <v>330</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3587,15 +3571,55 @@
         <v>7</v>
       </c>
       <c r="C41" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="C42" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="42">
+        <v>42</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E43" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F43" s="42" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5487,7 +5511,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2199E68-C488-415C-8570-1CD007A8B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1050090-329E-4EF4-AEC5-090BA8394D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="380">
   <si>
     <t>보내는사람</t>
   </si>
@@ -869,14 +869,6 @@
     <t>g을 kg로 변환하고 수량 곱함 (일반규칙)</t>
   </si>
   <si>
-    <t>가리비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백골뱅이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,6 +1282,42 @@
   </si>
   <si>
     <t>반건조생선.*\/ ///</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통다리모듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리브오일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^.*오로바일렌 올리브오일 선택: 피쿠알 ///오로바일렌 올리브오일 피쿠알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골뱅이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산참가리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입산참가리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피문어 0.5kg 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1574,16 +1602,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 생물 갑오징어 /, 추가, SET, 냉동 오징어 / ,</t>
+      <t xml:space="preserve">, 생물 갑오징어 /, SET, 냉동 오징어 / ,젓갈 선택: ,당일퀵, A급, 골뱅이 선택: , set, 가리비 선택: </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피문어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통다리모듬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2618,7 +2638,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2656,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>129</v>
@@ -2667,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2711,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>114</v>
@@ -2733,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2770,10 +2790,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2815,13 +2835,13 @@
         <v>196</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
@@ -2835,13 +2855,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2855,13 +2875,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2875,10 +2895,10 @@
         <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>223</v>
@@ -2895,10 +2915,10 @@
         <v>196</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>223</v>
@@ -2939,7 +2959,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -2970,16 +2990,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F10" s="42"/>
     </row>
@@ -2994,10 +3014,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>239</v>
@@ -3014,13 +3034,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3031,13 +3051,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -3049,13 +3069,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>330</v>
+        <v>166</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>205</v>
       </c>
       <c r="F14" s="42"/>
     </row>
@@ -3067,51 +3087,51 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>336</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="F16" s="42"/>
+        <v>333</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="42">
         <v>16</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -3120,20 +3140,18 @@
         <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>207</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="42">
@@ -3143,27 +3161,25 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="42">
         <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>171</v>
@@ -3171,8 +3187,8 @@
       <c r="E20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>243</v>
+      <c r="F20" s="59" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3183,7 +3199,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3200,10 +3216,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>171</v>
@@ -3211,17 +3227,19 @@
       <c r="E22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="42" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="42">
         <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>171</v>
@@ -3229,7 +3247,9 @@
       <c r="E23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="42"/>
+      <c r="F23" s="42" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="42">
@@ -3239,55 +3259,53 @@
         <v>7</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F24" s="42"/>
+        <v>9</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="42">
         <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>328</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="42">
         <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>7</v>
+        <v>357</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>224</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="42">
@@ -3297,13 +3315,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F27" s="42"/>
     </row>
@@ -3315,16 +3333,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3341,10 +3359,10 @@
         <v>172</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3355,17 +3373,15 @@
         <v>7</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>247</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="42">
@@ -3381,10 +3397,10 @@
         <v>172</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>363</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3398,13 +3414,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3418,13 +3434,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3438,13 +3454,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3461,10 +3477,10 @@
         <v>173</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3475,133 +3491,133 @@
         <v>7</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.45">
+        <v>231</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="42">
         <v>36</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>124</v>
+      <c r="B37" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="42">
         <v>37</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>93</v>
+      <c r="B38" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="42">
         <v>38</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>124</v>
+      <c r="B39" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="F39" s="42"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15.45">
       <c r="A40" s="42">
         <v>39</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>7</v>
+      <c r="B40" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.45">
       <c r="A41" s="42">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>7</v>
+      <c r="B41" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.45">
       <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>7</v>
+      <c r="B42" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>216</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="42">
@@ -3611,15 +3627,93 @@
         <v>7</v>
       </c>
       <c r="C43" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="42">
+        <v>43</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="C44" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="42">
+        <v>44</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="42">
+        <v>45</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="42">
+        <v>46</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E47" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F47" s="42" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3919,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -4248,7 +4342,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4282,7 +4376,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4298,7 +4392,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4314,7 +4408,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4348,7 +4442,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4382,7 +4476,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4398,7 +4492,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4414,7 +4508,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4430,7 +4524,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4446,7 +4540,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4462,7 +4556,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4478,7 +4572,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -4742,7 +4836,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4794,7 +4888,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4810,7 +4904,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -4826,7 +4920,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -4842,7 +4936,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5126,7 +5220,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5244,7 +5338,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5280,7 +5374,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>
@@ -5511,7 +5605,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5534,118 +5628,118 @@
         <v>126</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>253</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D6" s="60" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5656,13 +5750,13 @@
         <v>173</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>218</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5673,13 +5767,13 @@
         <v>174</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5690,261 +5784,261 @@
         <v>213</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>214</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>215</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>294</v>
-      </c>
       <c r="D19" s="60" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>295</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>297</v>
       </c>
       <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>300</v>
       </c>
       <c r="D21" s="60"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>308</v>
-      </c>
       <c r="D22" s="60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>311</v>
-      </c>
       <c r="D23" s="60" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>314</v>
-      </c>
       <c r="D24" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="D25" s="60" t="s">
         <v>323</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="D26" s="60" t="s">
         <v>338</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>341</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="60" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>344</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="D29" s="60" t="s">
         <v>348</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1050090-329E-4EF4-AEC5-090BA8394D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE4778-E4D5-4AAE-92E9-5FAD43BA4D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="385">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1604,6 +1604,26 @@
       </rPr>
       <t xml:space="preserve">, 생물 갑오징어 /, SET, 냉동 오징어 / ,젓갈 선택: ,당일퀵, A급, 골뱅이 선택: , set, 가리비 선택: </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드킹크랩 활어 0.5kg 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹크랩 선어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s\(.*?\)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2790,10 +2810,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3276,16 +3296,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>9</v>
+        <v>169</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>378</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -3294,16 +3314,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>9</v>
+        <v>166</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>384</v>
       </c>
       <c r="F26" s="42"/>
     </row>
@@ -3315,13 +3335,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>328</v>
+        <v>169</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>378</v>
       </c>
       <c r="F27" s="42"/>
     </row>
@@ -3333,16 +3353,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>326</v>
+        <v>382</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3350,36 +3370,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>224</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42">
         <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="F30" s="42"/>
     </row>
@@ -3391,17 +3409,15 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>226</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="42">
@@ -3411,16 +3427,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>228</v>
+        <v>217</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3437,10 +3453,10 @@
         <v>172</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3451,17 +3467,15 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>361</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="42">
@@ -3474,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3494,13 +3508,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3514,13 +3528,13 @@
         <v>7</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3534,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3551,73 +3565,77 @@
         <v>7</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.45">
+        <v>229</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="42">
         <v>39</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>124</v>
+      <c r="B40" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="42">
         <v>40</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>93</v>
+      <c r="B41" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="42">
         <v>41</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>124</v>
+      <c r="B42" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="42"/>
+        <v>240</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="42">
@@ -3627,73 +3645,71 @@
         <v>7</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>362</v>
+      </c>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.45">
       <c r="A44" s="42">
         <v>43</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>7</v>
+      <c r="B44" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.45">
       <c r="A45" s="42">
         <v>44</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>7</v>
+      <c r="B45" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.45">
       <c r="A46" s="42">
         <v>45</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>7</v>
+      <c r="B46" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="F46" s="42"/>
     </row>
@@ -3705,15 +3721,93 @@
         <v>7</v>
       </c>
       <c r="C47" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="42">
+        <v>47</v>
+      </c>
+      <c r="B48" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="C48" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="42">
+        <v>48</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="42">
+        <v>49</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="42">
+        <v>50</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E51" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F51" s="42" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5605,7 +5699,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE4778-E4D5-4AAE-92E9-5FAD43BA4D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28176F21-49AC-4A08-B220-E3AEE52FD531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="398">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1124,10 +1124,6 @@
   </si>
   <si>
     <t>골뱅이무침 만능소스' 글자가 있으면 수량을 '3개' 처럼 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코다리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1624,6 +1620,62 @@
   </si>
   <si>
     <t>\s\(.*?\)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절단코다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉동오징어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2658,7 +2710,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>116</v>
@@ -2773,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>129</v>
@@ -2810,10 +2862,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE8C8B0-87AB-4B5A-85D1-21EF511A776A}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2861,7 +2913,7 @@
         <v>166</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>202</v>
@@ -2875,13 +2927,13 @@
         <v>196</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2895,13 +2947,13 @@
         <v>196</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -2915,7 +2967,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>246</v>
@@ -2979,7 +3031,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -3010,16 +3062,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F10" s="42"/>
     </row>
@@ -3034,10 +3086,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11" s="42" t="s">
         <v>239</v>
@@ -3054,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3071,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -3089,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>166</v>
@@ -3107,13 +3159,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F15" s="42"/>
     </row>
@@ -3131,10 +3183,10 @@
         <v>238</v>
       </c>
       <c r="E16" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3145,13 +3197,13 @@
         <v>196</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -3169,7 +3221,7 @@
         <v>238</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F18" s="42"/>
     </row>
@@ -3181,13 +3233,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" s="42"/>
     </row>
@@ -3219,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3239,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>171</v>
@@ -3259,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>171</v>
@@ -3299,13 +3351,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -3317,13 +3369,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F26" s="42"/>
     </row>
@@ -3335,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F27" s="42"/>
     </row>
@@ -3353,13 +3405,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>243</v>
@@ -3373,7 +3425,7 @@
         <v>196</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>171</v>
@@ -3391,7 +3443,7 @@
         <v>196</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>171</v>
@@ -3409,13 +3461,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F31" s="42"/>
     </row>
@@ -3467,13 +3519,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F34" s="42"/>
     </row>
@@ -3551,10 +3603,10 @@
         <v>172</v>
       </c>
       <c r="E38" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>360</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3645,13 +3697,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F43" s="42"/>
     </row>
@@ -3727,7 +3779,7 @@
         <v>215</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F47" s="42" t="s">
         <v>220</v>
@@ -3747,7 +3799,7 @@
         <v>215</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F48" s="42" t="s">
         <v>216</v>
@@ -3761,13 +3813,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>216</v>
@@ -3781,13 +3833,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>215</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F50" s="42"/>
     </row>
@@ -3799,15 +3851,33 @@
         <v>7</v>
       </c>
       <c r="C51" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="42">
+        <v>51</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="C52" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E52" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F52" s="42" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3822,8 +3892,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4107,7 +4177,7 @@
         <v>80</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -4436,7 +4506,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4470,7 +4540,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4486,7 +4556,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4502,7 +4572,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4536,7 +4606,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4570,7 +4640,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4586,7 +4656,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4602,7 +4672,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4618,7 +4688,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4634,7 +4704,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4650,7 +4720,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4666,7 +4736,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -4930,7 +5000,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -4982,7 +5052,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4998,7 +5068,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -5014,7 +5084,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -5030,7 +5100,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5314,7 +5384,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5432,7 +5502,7 @@
         <v>152</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="54" t="s">
@@ -5468,7 +5538,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>
@@ -5850,7 +5920,7 @@
         <v>218</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5948,7 +6018,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>301</v>
@@ -5957,7 +6027,7 @@
         <v>289</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6056,16 +6126,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="C26" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="D26" s="60" t="s">
         <v>337</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6073,13 +6143,13 @@
         <v>290</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="D27" s="60" t="s">
         <v>340</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6087,27 +6157,27 @@
         <v>307</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="D28" s="60" t="s">
         <v>343</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="C29" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="D29" s="60" t="s">
         <v>347</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:4">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28176F21-49AC-4A08-B220-E3AEE52FD531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8368F4-8CC3-42DB-9B94-3C2B3F224CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,10 +1246,6 @@
   </si>
   <si>
     <t>"2개" 있으면 수량 곱해서 "4개"으로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명태회무침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,6 +1672,10 @@
   </si>
   <si>
     <t>냉동오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태회무침★</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,8 +2864,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2933,7 +2933,7 @@
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2953,7 +2953,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -3031,7 +3031,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -3062,10 +3062,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
@@ -3123,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>166</v>
@@ -3159,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>215</v>
@@ -3203,7 +3203,7 @@
         <v>238</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -3221,7 +3221,7 @@
         <v>238</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F18" s="42"/>
     </row>
@@ -3233,13 +3233,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F19" s="42"/>
     </row>
@@ -3271,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3291,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>171</v>
@@ -3311,7 +3311,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>171</v>
@@ -3351,13 +3351,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -3369,13 +3369,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F26" s="42"/>
     </row>
@@ -3387,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F27" s="42"/>
     </row>
@@ -3405,13 +3405,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>243</v>
@@ -3461,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>215</v>
@@ -3519,7 +3519,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>215</v>
@@ -3703,7 +3703,7 @@
         <v>173</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="F43" s="42"/>
     </row>
@@ -3813,7 +3813,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>215</v>
@@ -3833,7 +3833,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>215</v>
@@ -3851,7 +3851,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>215</v>
@@ -4506,7 +4506,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4540,7 +4540,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4556,7 +4556,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4572,7 +4572,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4606,7 +4606,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4640,7 +4640,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4656,7 +4656,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4672,7 +4672,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4688,7 +4688,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4704,7 +4704,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4720,7 +4720,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4736,7 +4736,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -5000,7 +5000,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -5052,7 +5052,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -5068,7 +5068,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -5084,7 +5084,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -5100,7 +5100,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5384,7 +5384,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5538,7 +5538,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8368F4-8CC3-42DB-9B94-3C2B3F224CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA5403C-A567-482F-986C-FF086B5A039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="399">
   <si>
     <t>보내는사람</t>
   </si>
@@ -1673,6 +1673,9 @@
   <si>
     <t>냉동오징어</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태회무침★</t>
   </si>
   <si>
     <t>명태회무침★</t>
@@ -2865,7 +2868,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3697,13 +3700,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>7</v>
+        <v>397</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>173</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F43" s="42"/>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA5403C-A567-482F-986C-FF086B5A039E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713A736-8422-4E4E-A6C3-FCE59BA59570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,6 +1246,10 @@
   </si>
   <si>
     <t>"2개" 있으면 수량 곱해서 "4개"으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명태회무침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1675,10 +1679,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>명태회무침★</t>
-  </si>
-  <si>
-    <t>명태회무침★</t>
+    <t>FORMAT_QTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,7 +2869,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2936,7 +2937,7 @@
         <v>166</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>202</v>
@@ -2956,7 +2957,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>202</v>
@@ -3034,7 +3035,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -3065,10 +3066,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>364</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>363</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>166</v>
@@ -3126,13 +3127,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F13" s="42"/>
     </row>
@@ -3144,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>166</v>
@@ -3162,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>215</v>
@@ -3206,7 +3207,7 @@
         <v>238</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="42"/>
     </row>
@@ -3224,7 +3225,7 @@
         <v>238</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F18" s="42"/>
     </row>
@@ -3236,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F19" s="42"/>
     </row>
@@ -3274,7 +3275,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>171</v>
@@ -3294,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>171</v>
@@ -3314,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>171</v>
@@ -3354,13 +3355,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F25" s="42"/>
     </row>
@@ -3372,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F26" s="42"/>
     </row>
@@ -3390,13 +3391,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>169</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F27" s="42"/>
     </row>
@@ -3408,13 +3409,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>243</v>
@@ -3464,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>215</v>
@@ -3522,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>215</v>
@@ -3700,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="F43" s="42"/>
     </row>
@@ -3816,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>215</v>
@@ -3836,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>215</v>
@@ -3854,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>215</v>
@@ -4509,7 +4510,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4543,7 +4544,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4559,7 +4560,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4575,7 +4576,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4609,7 +4610,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4643,7 +4644,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4659,7 +4660,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4675,7 +4676,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4691,7 +4692,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4707,7 +4708,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4723,7 +4724,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4739,7 +4740,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -5003,7 +5004,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -5055,7 +5056,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -5071,7 +5072,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -5087,7 +5088,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -5103,7 +5104,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5387,7 +5388,7 @@
         <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="53"/>
@@ -5541,7 +5542,7 @@
         <v>154</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="53"/>
@@ -5772,7 +5773,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5965,7 +5966,7 @@
         <v>268</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>269</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faulm\.cursor\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713A736-8422-4E4E-A6C3-FCE59BA59570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D390062-8965-4D51-8333-078EF7CF90D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1314,6 +1314,86 @@
   </si>
   <si>
     <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드킹크랩 활어 0.5kg 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹크랩 선어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\s\(.*?\)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공란12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절단코다리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉동오징어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORMAT_QTY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1598,88 +1678,28 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 생물 갑오징어 /, SET, 냉동 오징어 / ,젓갈 선택: ,당일퀵, A급, 골뱅이 선택: , set, 가리비 선택: </t>
+      <t>, 생물 갑오징어 /, SET,</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킹크랩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드킹크랩 활어 0.5kg 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킹크랩 선어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\s\(.*?\)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공란12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절단코다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉동오징어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORMAT_QTY</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>🥇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">냉동오징어 / ,젓갈 선택: ,당일퀵, A급, 골뱅이 선택: , set, 가리비 선택: </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,8 +2888,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3035,7 +3055,7 @@
         <v>169</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F8" s="42" t="s">
         <v>170</v>
@@ -3355,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>169</v>
@@ -3373,13 +3393,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F26" s="42"/>
     </row>
@@ -3391,7 +3411,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D27" s="42" t="s">
         <v>169</v>
@@ -3409,13 +3429,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>171</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F28" s="42" t="s">
         <v>243</v>
@@ -3523,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>215</v>
@@ -3837,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>215</v>
@@ -4510,7 +4530,7 @@
         <v>145</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="40"/>
@@ -4544,7 +4564,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="40"/>
@@ -4560,7 +4580,7 @@
         <v>148</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="40"/>
@@ -4576,7 +4596,7 @@
         <v>149</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="40"/>
@@ -4610,7 +4630,7 @@
         <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="40"/>
@@ -4644,7 +4664,7 @@
         <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="40"/>
@@ -4660,7 +4680,7 @@
         <v>154</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="40"/>
@@ -4676,7 +4696,7 @@
         <v>155</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="40"/>
@@ -4692,7 +4712,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="40"/>
@@ -4708,7 +4728,7 @@
         <v>157</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="40"/>
@@ -4724,7 +4744,7 @@
         <v>158</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="40"/>
@@ -4740,7 +4760,7 @@
         <v>159</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="40"/>
@@ -5004,7 +5024,7 @@
         <v>143</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
@@ -5056,7 +5076,7 @@
         <v>146</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -5072,7 +5092,7 @@
         <v>147</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="40"/>
@@ -5088,7 +5108,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
@@ -5104,7 +5124,7 @@
         <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="40"/>
@@ -5966,7 +5986,7 @@
         <v>268</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>269</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -2888,8 +2888,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
